--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_21_38.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_21_38.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3555933.023049504</v>
+        <v>3659959.074910012</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>243165.4780498526</v>
+        <v>416855.1052283187</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7682860.215038644</v>
+        <v>7646700.502757089</v>
       </c>
     </row>
     <row r="11">
@@ -665,7 +667,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -677,7 +679,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -710,7 +712,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -719,10 +721,10 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>92.47445699814442</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>270.4868569307846</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -756,7 +758,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I3" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247723</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,10 +785,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S3" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T3" t="n">
         <v>190.7165703189231</v>
@@ -814,25 +816,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -862,13 +864,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>73.08684350408575</v>
       </c>
       <c r="U4" t="n">
         <v>286.2118382056129</v>
@@ -877,13 +879,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>88.33031654603194</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -899,7 +901,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -914,7 +916,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,7 +946,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
         <v>203.9179701396201</v>
@@ -953,13 +955,13 @@
         <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>166.4798882899181</v>
+        <v>83.82099721688236</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -1051,25 +1053,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>129.2524301729657</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>137.6320927394857</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>96.35242040983809</v>
@@ -1108,7 +1110,7 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1130,13 +1132,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>269.6425323314741</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -1151,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1184,22 +1186,22 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>205.6368254889298</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1230,7 +1232,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,10 +1259,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S9" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T9" t="n">
         <v>190.7165703189231</v>
@@ -1291,25 +1293,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,16 +1338,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>145.992553243213</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -1354,7 +1356,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>67.70570320578919</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1367,16 +1369,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -1385,7 +1387,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444135</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1418,16 +1420,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
-        <v>199.022230457616</v>
+        <v>199.0222304576155</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881293</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1436,7 +1438,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1528,7 +1530,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>101.6969570046971</v>
+        <v>27.77749086859478</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -1543,7 +1545,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1573,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1604,16 +1606,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
@@ -1658,13 +1660,13 @@
         <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
-        <v>199.022230457616</v>
+        <v>199.0222304576155</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881293</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -1673,7 +1675,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -1765,16 +1767,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>110.0177171766856</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>133.3133845470783</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
@@ -1783,7 +1785,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,10 +1812,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
@@ -1831,7 +1833,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1856,7 +1858,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187862</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -1895,10 +1897,10 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
-        <v>199.022230457616</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881285</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -1999,16 +2001,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>136.1078891637031</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -2017,7 +2019,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>107.4021082756238</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2047,13 +2049,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
@@ -2129,13 +2131,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576155</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881293</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2236,13 +2238,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>20.89983420622057</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2293,10 +2295,10 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>148.0536352423264</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2378,7 +2380,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
         <v>369.731100678469</v>
@@ -2473,16 +2475,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -2491,7 +2493,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>41.16673120696609</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2533,7 +2535,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2542,7 +2544,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>49.33251894258945</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2606,7 +2608,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
         <v>250.9057009881286</v>
@@ -2710,19 +2712,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>42.5313457611381</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
@@ -2761,7 +2763,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
@@ -2773,7 +2775,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>32.81060261323915</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2789,7 +2791,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -2840,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2947,28 +2949,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>155.5473326898976</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>142.9621736065881</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>124.3308255261726</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>122.1493151545295</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>121.1364005308915</v>
+        <v>37.17792077063358</v>
       </c>
       <c r="G31" t="n">
-        <v>141.2394908002291</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>116.0100653541842</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>56.98118882652582</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2997,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>42.09059921808198</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>156.7416385096049</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>193.1208028352486</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>261.8998268972044</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
-        <v>227.8529958317883</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>262.2383508445519</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>201.4250078969974</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>194.3000058600551</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3095,7 +3097,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560522</v>
       </c>
     </row>
     <row r="33">
@@ -3184,28 +3186,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>155.5473326898976</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>142.9621736065881</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>124.3308255261726</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>122.1493151545295</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>121.1364005308915</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>141.2394908002291</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>116.0100653541842</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>56.98118882652582</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3234,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>42.09059921808198</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>156.7416385096049</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>193.1208028352486</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>261.8998268972048</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
-        <v>227.8529958317883</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>262.2383508445513</v>
+        <v>159.8103881934326</v>
       </c>
       <c r="X34" t="n">
-        <v>201.4250078969974</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>194.3000058600551</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3314,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3421,28 +3423,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>155.5473326898975</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>142.962173606588</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>124.3308255261726</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>122.1493151545294</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>121.1364005308914</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>141.239490800229</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>116.0100653541841</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>56.98118882652574</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,28 +3471,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.09059921808383</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>156.7416385096048</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>193.1208028352485</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>261.8998268972044</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
-        <v>227.8529958317882</v>
+        <v>45.31583743121404</v>
       </c>
       <c r="W37" t="n">
-        <v>262.2383508445512</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>201.4250078969974</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>194.300005860055</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3557,7 +3559,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3658,28 +3660,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>155.5473326898975</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>142.962173606588</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>124.3308255261744</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>122.1493151545294</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>121.1364005308914</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>141.239490800229</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>116.0100653541841</v>
+        <v>103.9877674501602</v>
       </c>
       <c r="I40" t="n">
-        <v>56.98118882652574</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,28 +3708,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.09059921808189</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>156.7416385096048</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>193.1208028352485</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>261.8998268972044</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
-        <v>227.8529958317882</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>262.2383508445512</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>201.4250078969974</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>194.300005860055</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3791,7 +3793,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U41" t="n">
         <v>250.9057009881286</v>
@@ -3895,28 +3897,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>155.5473326898976</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>142.9621736065881</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>124.3308255261726</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>122.1493151545295</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>121.1364005308915</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>141.2394908002291</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>116.0100653541842</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>56.98118882652582</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,28 +3945,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.09059921808198</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>156.7416385096049</v>
+        <v>148.1185786361436</v>
       </c>
       <c r="T43" t="n">
-        <v>193.1208028352486</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>261.8998268972044</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
-        <v>227.8529958317889</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>262.2383508445513</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>201.4250078969974</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>194.3000058600551</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -4132,28 +4134,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>6.600826611594925</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4201,7 +4203,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>199.5072400611301</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4304,13 +4306,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2345.167438673965</v>
+        <v>1959.379186075721</v>
       </c>
       <c r="C2" t="n">
-        <v>1976.204921733553</v>
+        <v>1590.416669135309</v>
       </c>
       <c r="D2" t="n">
-        <v>1617.939223126803</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="E2" t="n">
         <v>1232.150970528558</v>
@@ -4325,55 +4327,55 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J2" t="n">
         <v>255.3912473912089</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L2" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136267</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T2" t="n">
-        <v>3215.315153136267</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U2" t="n">
-        <v>3215.315153136267</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="V2" t="n">
-        <v>3215.315153136267</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="W2" t="n">
-        <v>3121.906610713899</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="X2" t="n">
-        <v>3121.906610713899</v>
+        <v>2736.118358115654</v>
       </c>
       <c r="Y2" t="n">
-        <v>2731.767278738087</v>
+        <v>2345.979026139843</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1702.096133556939</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C3" t="n">
-        <v>1527.643104275812</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D3" t="n">
-        <v>1378.708694614561</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E3" t="n">
-        <v>1219.471239609105</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F3" t="n">
-        <v>1072.93668163599</v>
+        <v>312.3844025601596</v>
       </c>
       <c r="G3" t="n">
-        <v>936.5735814686086</v>
+        <v>176.0213023927777</v>
       </c>
       <c r="H3" t="n">
-        <v>846.0716871064762</v>
+        <v>85.51940803064525</v>
       </c>
       <c r="I3" t="n">
-        <v>827.0643955080141</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J3" t="n">
-        <v>920.7416649986314</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K3" t="n">
-        <v>1159.005863978979</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L3" t="n">
-        <v>1525.704024291644</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M3" t="n">
-        <v>1972.98034951396</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N3" t="n">
-        <v>2446.503393068415</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O3" t="n">
-        <v>2857.46467248647</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P3" t="n">
-        <v>3167.964263962572</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q3" t="n">
-        <v>3325.605821609172</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R3" t="n">
-        <v>3325.461468201687</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S3" t="n">
-        <v>3196.023581695167</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T3" t="n">
-        <v>3003.380581373023</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U3" t="n">
-        <v>2775.312734507438</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V3" t="n">
-        <v>2540.160626275695</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W3" t="n">
-        <v>2285.923269547494</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X3" t="n">
-        <v>2078.071769341961</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y3" t="n">
-        <v>1870.311470577007</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2098.468996416296</v>
+        <v>510.7590362090544</v>
       </c>
       <c r="C4" t="n">
-        <v>1929.532813488389</v>
+        <v>510.7590362090544</v>
       </c>
       <c r="D4" t="n">
-        <v>1779.416174076054</v>
+        <v>360.6423967967187</v>
       </c>
       <c r="E4" t="n">
-        <v>1779.416174076054</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="F4" t="n">
-        <v>1632.526226578143</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="G4" t="n">
-        <v>1464.823389952862</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="H4" t="n">
-        <v>1464.823389952862</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I4" t="n">
-        <v>1464.823389952862</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J4" t="n">
-        <v>1509.946022399798</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K4" t="n">
-        <v>1713.933205348674</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L4" t="n">
-        <v>2030.493003797171</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M4" t="n">
-        <v>2374.65004939672</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N4" t="n">
-        <v>2716.058426102584</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O4" t="n">
-        <v>3015.388025022998</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P4" t="n">
-        <v>3247.995525456657</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q4" t="n">
-        <v>3325.605821609172</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R4" t="n">
-        <v>3325.605821609172</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S4" t="n">
-        <v>3133.919937435998</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T4" t="n">
-        <v>3133.919937435998</v>
+        <v>1571.953112224276</v>
       </c>
       <c r="U4" t="n">
-        <v>2844.817070561642</v>
+        <v>1282.850245349919</v>
       </c>
       <c r="V4" t="n">
-        <v>2590.132582355755</v>
+        <v>1028.165757144032</v>
       </c>
       <c r="W4" t="n">
-        <v>2590.132582355755</v>
+        <v>738.7485871070718</v>
       </c>
       <c r="X4" t="n">
-        <v>2500.910040390066</v>
+        <v>510.7590362090544</v>
       </c>
       <c r="Y4" t="n">
-        <v>2280.117461246536</v>
+        <v>510.7590362090544</v>
       </c>
     </row>
     <row r="5">
@@ -4541,34 +4543,34 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2345.167438673965</v>
+        <v>1944.904841306683</v>
       </c>
       <c r="C5" t="n">
-        <v>1976.204921733553</v>
+        <v>1575.942324366272</v>
       </c>
       <c r="D5" t="n">
-        <v>1617.939223126803</v>
+        <v>1575.942324366272</v>
       </c>
       <c r="E5" t="n">
-        <v>1232.150970528558</v>
+        <v>1190.154071768027</v>
       </c>
       <c r="F5" t="n">
-        <v>821.1650657389509</v>
+        <v>779.1681669784198</v>
       </c>
       <c r="G5" t="n">
-        <v>406.0926155839475</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H5" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I5" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L5" t="n">
         <v>1040.244834329465</v>
@@ -4577,7 +4579,7 @@
         <v>1573.776739001389</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O5" t="n">
         <v>2623.528026939508</v>
@@ -4592,25 +4594,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3119.628073993393</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U5" t="n">
-        <v>2866.097597267229</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V5" t="n">
-        <v>2697.936093944079</v>
+        <v>2671.139254837878</v>
       </c>
       <c r="W5" t="n">
-        <v>2345.167438673965</v>
+        <v>2318.370599567763</v>
       </c>
       <c r="X5" t="n">
-        <v>2345.167438673965</v>
+        <v>1944.904841306683</v>
       </c>
       <c r="Y5" t="n">
-        <v>2345.167438673965</v>
+        <v>1944.904841306683</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811095</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999825</v>
       </c>
       <c r="D6" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387314</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332758</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601609</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927789</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064547</v>
+        <v>85.51940803064583</v>
       </c>
       <c r="I6" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031484</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158141</v>
       </c>
       <c r="M6" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125858</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619338</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431609</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501178</v>
       </c>
     </row>
     <row r="7">
@@ -4699,22 +4701,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>777.020896318616</v>
+        <v>618.4760397199826</v>
       </c>
       <c r="C7" t="n">
-        <v>608.0847133907091</v>
+        <v>618.4760397199826</v>
       </c>
       <c r="D7" t="n">
-        <v>457.9680739783734</v>
+        <v>618.4760397199826</v>
       </c>
       <c r="E7" t="n">
-        <v>310.0549803959803</v>
+        <v>470.5629461375895</v>
       </c>
       <c r="F7" t="n">
-        <v>310.0549803959803</v>
+        <v>331.5406302391191</v>
       </c>
       <c r="G7" t="n">
-        <v>310.0549803959803</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="H7" t="n">
         <v>163.8377936138381</v>
@@ -4756,19 +4758,19 @@
         <v>1645.778206672847</v>
       </c>
       <c r="U7" t="n">
-        <v>1645.778206672847</v>
+        <v>1356.675339798491</v>
       </c>
       <c r="V7" t="n">
-        <v>1645.778206672847</v>
+        <v>1356.675339798491</v>
       </c>
       <c r="W7" t="n">
-        <v>1356.361036635886</v>
+        <v>1067.25816976153</v>
       </c>
       <c r="X7" t="n">
-        <v>1128.371485737869</v>
+        <v>839.2686188635128</v>
       </c>
       <c r="Y7" t="n">
-        <v>907.5789065943389</v>
+        <v>618.4760397199826</v>
       </c>
     </row>
     <row r="8">
@@ -4778,34 +4780,34 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1320.35562273557</v>
+        <v>2005.586939522201</v>
       </c>
       <c r="C8" t="n">
-        <v>1320.35562273557</v>
+        <v>1636.624422581789</v>
       </c>
       <c r="D8" t="n">
-        <v>1320.35562273557</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="E8" t="n">
-        <v>934.5673701373257</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F8" t="n">
-        <v>523.5814653477182</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G8" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H8" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I8" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L8" t="n">
         <v>1040.244834329464</v>
@@ -4826,28 +4828,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3009.337405520487</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U8" t="n">
-        <v>2801.623440380154</v>
+        <v>2961.784676410102</v>
       </c>
       <c r="V8" t="n">
-        <v>2470.560553036583</v>
+        <v>2630.721789066532</v>
       </c>
       <c r="W8" t="n">
-        <v>2470.560553036583</v>
+        <v>2277.953133796417</v>
       </c>
       <c r="X8" t="n">
-        <v>2097.094794775503</v>
+        <v>2277.953133796417</v>
       </c>
       <c r="Y8" t="n">
-        <v>1706.955462799692</v>
+        <v>2277.953133796417</v>
       </c>
     </row>
     <row r="9">
@@ -4878,16 +4880,16 @@
         <v>85.51940803064545</v>
       </c>
       <c r="I9" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031473</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158128</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
@@ -4936,43 +4938,43 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>772.5608581015648</v>
+        <v>532.4548862703364</v>
       </c>
       <c r="C10" t="n">
-        <v>772.5608581015648</v>
+        <v>363.5187033424295</v>
       </c>
       <c r="D10" t="n">
-        <v>772.5608581015648</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="E10" t="n">
-        <v>624.6477645191717</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F10" t="n">
-        <v>477.7578170212613</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G10" t="n">
-        <v>310.0549803959802</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H10" t="n">
-        <v>163.837793613838</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I10" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
       </c>
       <c r="K10" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279955</v>
       </c>
       <c r="L10" t="n">
-        <v>632.1817302764914</v>
+        <v>632.1817302764916</v>
       </c>
       <c r="M10" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760407</v>
       </c>
       <c r="N10" t="n">
-        <v>1317.747152581905</v>
+        <v>1317.747152581906</v>
       </c>
       <c r="O10" t="n">
         <v>1617.076751502319</v>
@@ -4987,25 +4989,25 @@
         <v>1837.464090846021</v>
       </c>
       <c r="S10" t="n">
-        <v>1645.778206672847</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="T10" t="n">
-        <v>1645.778206672847</v>
+        <v>1615.697475415547</v>
       </c>
       <c r="U10" t="n">
-        <v>1498.310981174652</v>
+        <v>1326.594608541191</v>
       </c>
       <c r="V10" t="n">
-        <v>1243.626492968765</v>
+        <v>1071.910120335304</v>
       </c>
       <c r="W10" t="n">
-        <v>954.2093229318045</v>
+        <v>782.492950298343</v>
       </c>
       <c r="X10" t="n">
-        <v>954.2093229318045</v>
+        <v>714.1033511005761</v>
       </c>
       <c r="Y10" t="n">
-        <v>954.2093229318045</v>
+        <v>714.1033511005761</v>
       </c>
     </row>
     <row r="11">
@@ -5021,7 +5023,7 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
         <v>1204.759558406468</v>
@@ -5030,28 +5032,28 @@
         <v>793.7736536168609</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H11" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
         <v>3640.42229106801</v>
@@ -5069,19 +5071,19 @@
         <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5118,28 +5120,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962606</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M12" t="n">
-        <v>1670.092171589158</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="N12" t="n">
-        <v>1859.536823237711</v>
+        <v>1550.665004989558</v>
       </c>
       <c r="O12" t="n">
-        <v>1859.536823237711</v>
+        <v>2102.574735228845</v>
       </c>
       <c r="P12" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,22 +5175,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>513.8536007400712</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C13" t="n">
-        <v>411.1294017454277</v>
+        <v>552.8412329032296</v>
       </c>
       <c r="D13" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E13" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F13" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G13" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
         <v>93.81666304797187</v>
@@ -5221,28 +5223,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138411</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703109</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="14">
@@ -5258,28 +5260,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5306,7 +5308,7 @@
         <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U14" t="n">
         <v>4151.812499466573</v>
@@ -5355,13 +5357,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K15" t="n">
-        <v>243.4633055756266</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L15" t="n">
-        <v>710.2486053718725</v>
+        <v>710.248605371872</v>
       </c>
       <c r="M15" t="n">
         <v>1307.627092998424</v>
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400712</v>
+        <v>917.5010142286973</v>
       </c>
       <c r="C16" t="n">
-        <v>402.7245934908939</v>
+        <v>917.5010142286973</v>
       </c>
       <c r="D16" t="n">
-        <v>402.7245934908939</v>
+        <v>767.3843748163615</v>
       </c>
       <c r="E16" t="n">
-        <v>402.7245934908939</v>
+        <v>619.4712812339684</v>
       </c>
       <c r="F16" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648819</v>
+        <v>1616.556199993915</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611858</v>
+        <v>1327.139029956954</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138411</v>
+        <v>1099.149479058937</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703109</v>
+        <v>1099.149479058937</v>
       </c>
     </row>
     <row r="17">
@@ -5495,28 +5497,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I17" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111712</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5592,25 +5594,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468471</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L18" t="n">
-        <v>1072.713683962606</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="M18" t="n">
-        <v>1670.092171589158</v>
+        <v>1025.119922845744</v>
       </c>
       <c r="N18" t="n">
-        <v>2297.690135143765</v>
+        <v>1652.717886400351</v>
       </c>
       <c r="O18" t="n">
-        <v>2553.061288060775</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.061288060775</v>
@@ -5647,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>983.3556038098237</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C19" t="n">
-        <v>814.4194208819168</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="D19" t="n">
-        <v>664.3027814695811</v>
+        <v>545.3854261579752</v>
       </c>
       <c r="E19" t="n">
-        <v>516.389687887188</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F19" t="n">
-        <v>369.4997403892776</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G19" t="n">
-        <v>202.3036411041575</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
         <v>93.81666304797187</v>
@@ -5695,28 +5697,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2446.96308358026</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>2157.887856924458</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1903.203368718571</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1613.786198681611</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>1385.796647783593</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>1165.004068640063</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5738,40 +5740,40 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
@@ -5780,19 +5782,19 @@
         <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U20" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5829,25 +5831,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K21" t="n">
-        <v>577.3880777468471</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L21" t="n">
-        <v>680.0291294438176</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M21" t="n">
-        <v>680.0291294438176</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N21" t="n">
-        <v>1307.627092998424</v>
+        <v>2148.04349261611</v>
       </c>
       <c r="O21" t="n">
-        <v>1859.536823237711</v>
+        <v>2148.04349261611</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q21" t="n">
         <v>2516.421633107662</v>
@@ -5884,10 +5886,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>800.6374272687975</v>
+        <v>802.9288273958734</v>
       </c>
       <c r="C22" t="n">
-        <v>631.7012443408906</v>
+        <v>781.8178837532264</v>
       </c>
       <c r="D22" t="n">
         <v>631.7012443408906</v>
@@ -5941,19 +5943,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="V22" t="n">
-        <v>1538.836727347306</v>
+        <v>1722.776592304621</v>
       </c>
       <c r="W22" t="n">
-        <v>1249.419557310345</v>
+        <v>1433.359422267661</v>
       </c>
       <c r="X22" t="n">
-        <v>1021.430006412328</v>
+        <v>1205.369871369643</v>
       </c>
       <c r="Y22" t="n">
-        <v>800.6374272687975</v>
+        <v>984.5772922261132</v>
       </c>
     </row>
     <row r="23">
@@ -5963,34 +5965,34 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192595</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -6002,7 +6004,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6020,19 +6022,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="24">
@@ -6066,28 +6068,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K24" t="n">
-        <v>577.3880777468471</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L24" t="n">
-        <v>1072.713683962606</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="M24" t="n">
-        <v>1336.913939313768</v>
+        <v>1025.119922845744</v>
       </c>
       <c r="N24" t="n">
-        <v>1964.511902868375</v>
+        <v>1652.717886400351</v>
       </c>
       <c r="O24" t="n">
-        <v>2516.421633107662</v>
+        <v>2204.627616639638</v>
       </c>
       <c r="P24" t="n">
-        <v>2516.421633107662</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>866.4638174991043</v>
+        <v>768.5380889459582</v>
       </c>
       <c r="C25" t="n">
-        <v>697.5276345711974</v>
+        <v>599.6019060180513</v>
       </c>
       <c r="D25" t="n">
-        <v>697.5276345711974</v>
+        <v>449.4852666057155</v>
       </c>
       <c r="E25" t="n">
-        <v>549.6145409888043</v>
+        <v>449.4852666057155</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908939</v>
+        <v>302.5953191078052</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>135.3992198226851</v>
       </c>
       <c r="H25" t="n">
         <v>93.81666304797187</v>
@@ -6181,16 +6183,16 @@
         <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648819</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611858</v>
+        <v>1398.968683817745</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138411</v>
+        <v>1170.979132919728</v>
       </c>
       <c r="Y25" t="n">
-        <v>866.4638174991043</v>
+        <v>950.1865537761979</v>
       </c>
     </row>
     <row r="26">
@@ -6200,13 +6202,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
         <v>1204.759558406469</v>
@@ -6239,13 +6241,13 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
@@ -6257,19 +6259,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="27">
@@ -6303,28 +6305,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K27" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L27" t="n">
-        <v>243.4633055756266</v>
+        <v>352.5519571452614</v>
       </c>
       <c r="M27" t="n">
-        <v>840.8417932021785</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="N27" t="n">
-        <v>1307.627092998424</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O27" t="n">
-        <v>1859.536823237711</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P27" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>951.777212765616</v>
+        <v>2940.5785039035</v>
       </c>
       <c r="C28" t="n">
-        <v>782.8410298377091</v>
+        <v>2771.642320975594</v>
       </c>
       <c r="D28" t="n">
-        <v>632.7243904253734</v>
+        <v>2771.642320975594</v>
       </c>
       <c r="E28" t="n">
-        <v>484.8112968429803</v>
+        <v>2771.642320975594</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429803</v>
+        <v>2728.681365661313</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578602</v>
+        <v>2561.485266376193</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>2419.773435218391</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782957</v>
+        <v>2417.922750296628</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>2679.612012822167</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>3070.010606998107</v>
       </c>
       <c r="M28" t="n">
-        <v>1248.150240910809</v>
+        <v>3492.020309729142</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>3909.43018138915</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>4278.959462098135</v>
       </c>
       <c r="P28" t="n">
-        <v>2327.764848853361</v>
+        <v>4571.634917671694</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832663</v>
+        <v>4623.787448650995</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>4623.787448650995</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510508</v>
+        <v>4404.185983673937</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854706</v>
+        <v>4115.110757018135</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.701365648819</v>
+        <v>3860.426268812248</v>
       </c>
       <c r="W28" t="n">
-        <v>1400.559342807163</v>
+        <v>3571.009098775287</v>
       </c>
       <c r="X28" t="n">
-        <v>1172.569791909146</v>
+        <v>3343.01954787727</v>
       </c>
       <c r="Y28" t="n">
-        <v>951.777212765616</v>
+        <v>3122.22696873374</v>
       </c>
     </row>
     <row r="29">
@@ -6458,22 +6460,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J29" t="n">
         <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
         <v>3640.422291068009</v>
@@ -6497,13 +6499,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6540,28 +6542,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K30" t="n">
-        <v>577.3880777468471</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L30" t="n">
-        <v>1072.713683962606</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M30" t="n">
-        <v>1336.913939313768</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="N30" t="n">
-        <v>1964.511902868375</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O30" t="n">
-        <v>2516.421633107662</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>926.9575315319324</v>
+        <v>989.3306680894883</v>
       </c>
       <c r="C31" t="n">
-        <v>782.5512955656818</v>
+        <v>820.3944851615814</v>
       </c>
       <c r="D31" t="n">
-        <v>656.9646031150023</v>
+        <v>670.2778457492457</v>
       </c>
       <c r="E31" t="n">
-        <v>533.5814564942655</v>
+        <v>522.3647521668526</v>
       </c>
       <c r="F31" t="n">
-        <v>411.2214559580114</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G31" t="n">
-        <v>268.5553036345476</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H31" t="n">
-        <v>151.373419438402</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>198.094482495415</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>483.825546038073</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>898.2659412311325</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
-        <v>1344.317444979286</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1785.769117656414</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2179.340199382518</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
-        <v>2496.057455973196</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2639.297491717215</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2596.781734931274</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2438.456847547835</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2243.385329532432</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1978.840049838286</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1748.685508594056</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="W31" t="n">
-        <v>1483.798285518751</v>
+        <v>1398.968683817745</v>
       </c>
       <c r="X31" t="n">
-        <v>1280.33868158239</v>
+        <v>1170.979132919728</v>
       </c>
       <c r="Y31" t="n">
-        <v>1084.076049400516</v>
+        <v>1170.979132919728</v>
       </c>
     </row>
     <row r="32">
@@ -6686,61 +6688,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I32" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J32" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6771,34 +6773,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="K33" t="n">
-        <v>243.4633055756266</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L33" t="n">
-        <v>738.7889117913853</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M33" t="n">
-        <v>1307.627092998424</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N33" t="n">
-        <v>1307.627092998424</v>
+        <v>2148.04349261611</v>
       </c>
       <c r="O33" t="n">
-        <v>1859.536823237711</v>
+        <v>2148.04349261611</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>926.9575315319322</v>
+        <v>641.8461362382112</v>
       </c>
       <c r="C34" t="n">
-        <v>782.5512955656816</v>
+        <v>472.9099533103043</v>
       </c>
       <c r="D34" t="n">
-        <v>656.9646031150021</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="E34" t="n">
-        <v>533.5814564942652</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F34" t="n">
-        <v>411.2214559580111</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="G34" t="n">
-        <v>268.5553036345477</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H34" t="n">
-        <v>151.373419438402</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J34" t="n">
-        <v>198.094482495415</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>483.8255460380729</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>898.2659412311323</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
-        <v>1344.317444979286</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1785.769117656414</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2179.340199382518</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
-        <v>2496.057455973196</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2639.297491717215</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2596.781734931274</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2438.456847547835</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2243.385329532432</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1978.840049838286</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1748.685508594055</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1483.798285518751</v>
+        <v>1272.276731109998</v>
       </c>
       <c r="X34" t="n">
-        <v>1280.338681582389</v>
+        <v>1044.287180211981</v>
       </c>
       <c r="Y34" t="n">
-        <v>1084.076049400516</v>
+        <v>823.4946010684509</v>
       </c>
     </row>
     <row r="35">
@@ -6911,19 +6913,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
@@ -6935,10 +6937,10 @@
         <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6950,7 +6952,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -6968,19 +6970,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="36">
@@ -7014,28 +7016,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K36" t="n">
-        <v>577.3880777468471</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L36" t="n">
-        <v>1072.713683962606</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M36" t="n">
-        <v>1670.092171589158</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N36" t="n">
-        <v>1964.511902868375</v>
+        <v>2148.04349261611</v>
       </c>
       <c r="O36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>926.9575315319319</v>
+        <v>950.7540666811333</v>
       </c>
       <c r="C37" t="n">
-        <v>782.5512955656814</v>
+        <v>781.8178837532264</v>
       </c>
       <c r="D37" t="n">
-        <v>656.964603115002</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="E37" t="n">
-        <v>533.5814564942652</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F37" t="n">
-        <v>411.2214559580112</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G37" t="n">
-        <v>268.5553036345475</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H37" t="n">
-        <v>151.3734194384019</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>198.0944824954151</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>483.8255460380731</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>898.2659412311326</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
-        <v>1344.317444979287</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1785.769117656414</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2179.340199382519</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
-        <v>2496.057455973197</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2639.297491717216</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2596.781734931272</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2438.456847547833</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2243.385329532431</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1978.840049838285</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1748.685508594054</v>
+        <v>1642.612280691864</v>
       </c>
       <c r="W37" t="n">
-        <v>1483.79828551875</v>
+        <v>1353.195110654903</v>
       </c>
       <c r="X37" t="n">
-        <v>1280.338681582389</v>
+        <v>1353.195110654903</v>
       </c>
       <c r="Y37" t="n">
-        <v>1084.076049400515</v>
+        <v>1132.402531511373</v>
       </c>
     </row>
     <row r="38">
@@ -7160,22 +7162,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7187,7 +7189,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7208,13 +7210,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7251,28 +7253,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K39" t="n">
-        <v>243.4633055756266</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L39" t="n">
-        <v>315.9123021921482</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M39" t="n">
-        <v>913.2907898187001</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="N39" t="n">
-        <v>1540.888753373307</v>
+        <v>1550.665004989558</v>
       </c>
       <c r="O39" t="n">
-        <v>2092.798483612594</v>
+        <v>2102.574735228845</v>
       </c>
       <c r="P39" t="n">
-        <v>2516.421633107662</v>
+        <v>2526.197884723913</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.9575315319338</v>
+        <v>915.1035305473698</v>
       </c>
       <c r="C40" t="n">
-        <v>782.5512955656832</v>
+        <v>746.1673476194629</v>
       </c>
       <c r="D40" t="n">
-        <v>656.964603115002</v>
+        <v>596.0507082071272</v>
       </c>
       <c r="E40" t="n">
-        <v>533.5814564942652</v>
+        <v>448.1376146247341</v>
       </c>
       <c r="F40" t="n">
-        <v>411.2214559580112</v>
+        <v>448.1376146247341</v>
       </c>
       <c r="G40" t="n">
-        <v>268.5553036345475</v>
+        <v>280.941515339614</v>
       </c>
       <c r="H40" t="n">
-        <v>151.3734194384019</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>198.0944824954151</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>483.8255460380731</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>898.2659412311326</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
-        <v>1344.317444979287</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1785.769117656414</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2179.340199382519</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
-        <v>2496.057455973197</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2639.297491717216</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2596.781734931274</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2438.456847547835</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2243.385329532432</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="U40" t="n">
-        <v>1978.840049838287</v>
+        <v>1907.987318831765</v>
       </c>
       <c r="V40" t="n">
-        <v>1748.685508594056</v>
+        <v>1653.302830625878</v>
       </c>
       <c r="W40" t="n">
-        <v>1483.798285518752</v>
+        <v>1363.885660588917</v>
       </c>
       <c r="X40" t="n">
-        <v>1280.338681582391</v>
+        <v>1135.8961096909</v>
       </c>
       <c r="Y40" t="n">
-        <v>1084.076049400517</v>
+        <v>915.1035305473698</v>
       </c>
     </row>
     <row r="41">
@@ -7406,25 +7408,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7445,13 +7447,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7488,25 +7490,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K42" t="n">
-        <v>577.3880777468471</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L42" t="n">
-        <v>1072.713683962606</v>
+        <v>352.5519571452614</v>
       </c>
       <c r="M42" t="n">
-        <v>1670.092171589158</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="N42" t="n">
-        <v>2297.690135143765</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O42" t="n">
-        <v>2319.799627685893</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P42" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
         <v>2553.061288060775</v>
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.9575315319324</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C43" t="n">
-        <v>782.5512955656818</v>
+        <v>847.6442739835331</v>
       </c>
       <c r="D43" t="n">
-        <v>656.9646031150023</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E43" t="n">
-        <v>533.5814564942655</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580114</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G43" t="n">
-        <v>268.5553036345476</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H43" t="n">
-        <v>151.373419438402</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>198.094482495415</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>483.825546038073</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>898.2659412311325</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
-        <v>1344.317444979286</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1785.769117656414</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2179.340199382518</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
-        <v>2496.057455973196</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2639.297491717215</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2596.781734931274</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S43" t="n">
-        <v>2438.456847547835</v>
+        <v>2297.348357685166</v>
       </c>
       <c r="T43" t="n">
-        <v>2243.385329532432</v>
+        <v>2077.746892708107</v>
       </c>
       <c r="U43" t="n">
-        <v>1978.840049838286</v>
+        <v>1788.671666052305</v>
       </c>
       <c r="V43" t="n">
-        <v>1748.685508594055</v>
+        <v>1533.987177846418</v>
       </c>
       <c r="W43" t="n">
-        <v>1483.798285518751</v>
+        <v>1244.570007809457</v>
       </c>
       <c r="X43" t="n">
-        <v>1280.33868158239</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="Y43" t="n">
-        <v>1084.076049400516</v>
+        <v>1016.58045691144</v>
       </c>
     </row>
     <row r="44">
@@ -7622,22 +7624,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
@@ -7679,19 +7681,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="45">
@@ -7725,28 +7727,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K45" t="n">
-        <v>243.4633055756266</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L45" t="n">
-        <v>243.4633055756266</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M45" t="n">
-        <v>680.0291294438176</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N45" t="n">
-        <v>1307.627092998424</v>
+        <v>2148.04349261611</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>2148.04349261611</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>781.8178837532264</v>
+        <v>734.6461798836013</v>
       </c>
       <c r="C46" t="n">
-        <v>781.8178837532264</v>
+        <v>565.7099969556945</v>
       </c>
       <c r="D46" t="n">
-        <v>631.7012443408906</v>
+        <v>415.5933575433587</v>
       </c>
       <c r="E46" t="n">
-        <v>631.7012443408906</v>
+        <v>267.6802639609656</v>
       </c>
       <c r="F46" t="n">
-        <v>484.8112968429803</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7828,28 +7830,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>781.8178837532264</v>
+        <v>916.2946447138411</v>
       </c>
     </row>
   </sheetData>
@@ -23416,7 +23418,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>65.54986409393075</v>
+        <v>139.4693302300331</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -23431,7 +23433,7 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>81.26583631856553</v>
@@ -23461,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23653,16 +23655,16 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>57.22910392194228</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>12.10766347585295</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23671,7 +23673,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23701,7 +23703,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23719,7 +23721,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23887,16 +23889,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>10.32607348286604</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -23905,7 +23907,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>32.8926045706001</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
         <v>81.26583631856553</v>
@@ -23935,13 +23937,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -24124,13 +24126,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>146.3469868924073</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -24181,10 +24183,10 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
-        <v>104.0840080815016</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24361,16 +24363,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -24379,7 +24381,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>99.1279816392578</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856553</v>
@@ -24421,7 +24423,7 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24430,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>169.2521344095053</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24598,19 +24600,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>102.8897022617931</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -24649,7 +24651,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24661,7 +24663,7 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>253.7123957233518</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24847,7 +24849,7 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>108.2431272522977</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -24895,7 +24897,7 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -24904,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -25081,16 +25083,16 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -25135,7 +25137,7 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>126.7126101431584</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25318,7 +25320,7 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -25369,13 +25371,13 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>206.821805892614</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25546,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -25558,13 +25560,13 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>36.30694539606372</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -25600,7 +25602,7 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25783,7 +25785,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -25804,7 +25806,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,10 +25833,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>32.90770736550095</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25852,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -26020,28 +26022,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>138.8202214113363</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26089,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>19.07741329096464</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>658526.1030172635</v>
+        <v>658526.1030172636</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>658526.1030172635</v>
+        <v>658526.1030172636</v>
       </c>
     </row>
     <row r="7">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>669642.2391566854</v>
+        <v>658526.1030172636</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>669642.2391566854</v>
+        <v>658526.1030172635</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>669642.2391566854</v>
+        <v>658526.1030172636</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>669642.2391566854</v>
+        <v>658526.1030172636</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>669642.2391566854</v>
+        <v>658526.1030172636</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>658526.1030172636</v>
+        <v>658526.1030172635</v>
       </c>
     </row>
   </sheetData>
@@ -26314,43 +26316,43 @@
         <v>779989.681371069</v>
       </c>
       <c r="C2" t="n">
-        <v>779989.6813710689</v>
+        <v>779989.681371069</v>
       </c>
       <c r="D2" t="n">
-        <v>779989.6813710692</v>
+        <v>779989.6813710693</v>
       </c>
       <c r="E2" t="n">
         <v>766789.2697055057</v>
       </c>
       <c r="F2" t="n">
+        <v>766789.2697055058</v>
+      </c>
+      <c r="G2" t="n">
         <v>766789.2697055057</v>
       </c>
-      <c r="G2" t="n">
-        <v>766789.269705506</v>
-      </c>
       <c r="H2" t="n">
-        <v>766789.269705506</v>
+        <v>766789.2697055057</v>
       </c>
       <c r="I2" t="n">
-        <v>766789.2697055058</v>
+        <v>766789.2697055057</v>
       </c>
       <c r="J2" t="n">
         <v>766789.2697055059</v>
       </c>
       <c r="K2" t="n">
-        <v>779989.6813710694</v>
+        <v>766789.269705506</v>
       </c>
       <c r="L2" t="n">
-        <v>779989.6813710696</v>
+        <v>766789.2697055059</v>
       </c>
       <c r="M2" t="n">
-        <v>779989.6813710694</v>
+        <v>766789.2697055058</v>
       </c>
       <c r="N2" t="n">
-        <v>779989.6813710695</v>
+        <v>766789.2697055058</v>
       </c>
       <c r="O2" t="n">
-        <v>779989.6813710693</v>
+        <v>766789.2697055059</v>
       </c>
       <c r="P2" t="n">
         <v>766789.269705506</v>
@@ -26369,13 +26371,13 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>1.947259988810401e-10</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073553</v>
+        <v>325412.4618073549</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1.797263848857256e-10</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26387,10 +26389,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972776</v>
+        <v>217531.2023972775</v>
       </c>
       <c r="K3" t="n">
-        <v>19427.71799363177</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -26415,49 +26417,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>92793.84288319398</v>
+        <v>92793.84288319404</v>
       </c>
       <c r="C4" t="n">
-        <v>92793.84288319405</v>
+        <v>92793.84288319403</v>
       </c>
       <c r="D4" t="n">
-        <v>92793.84288319405</v>
+        <v>92793.84288319404</v>
       </c>
       <c r="E4" t="n">
-        <v>13606.8081118428</v>
+        <v>13606.80811184274</v>
       </c>
       <c r="F4" t="n">
-        <v>13606.80811184279</v>
+        <v>13606.80811184274</v>
       </c>
       <c r="G4" t="n">
         <v>13606.80811184275</v>
       </c>
       <c r="H4" t="n">
-        <v>13606.80811184274</v>
+        <v>13606.80811184275</v>
       </c>
       <c r="I4" t="n">
         <v>13606.80811184275</v>
       </c>
       <c r="J4" t="n">
+        <v>13606.80811184275</v>
+      </c>
+      <c r="K4" t="n">
         <v>13606.80811184274</v>
       </c>
-      <c r="K4" t="n">
-        <v>21597.66737493621</v>
-      </c>
       <c r="L4" t="n">
-        <v>21597.66737493621</v>
+        <v>13606.80811184281</v>
       </c>
       <c r="M4" t="n">
-        <v>21597.66737493624</v>
+        <v>13606.80811184274</v>
       </c>
       <c r="N4" t="n">
-        <v>21597.66737493624</v>
+        <v>13606.80811184275</v>
       </c>
       <c r="O4" t="n">
-        <v>21597.66737493621</v>
+        <v>13606.80811184275</v>
       </c>
       <c r="P4" t="n">
-        <v>13606.80811184274</v>
+        <v>13606.80811184275</v>
       </c>
     </row>
     <row r="5">
@@ -26494,19 +26496,19 @@
         <v>101122.5298239071</v>
       </c>
       <c r="K5" t="n">
-        <v>103164.1158539154</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="L5" t="n">
-        <v>103164.1158539154</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="M5" t="n">
-        <v>103164.1158539154</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="N5" t="n">
-        <v>103164.1158539154</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="O5" t="n">
-        <v>103164.1158539154</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="P5" t="n">
         <v>101122.5298239071</v>
@@ -26519,46 +26521,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-749482.8478011111</v>
+        <v>-749482.8478011109</v>
       </c>
       <c r="C6" t="n">
         <v>579261.8979264818</v>
       </c>
       <c r="D6" t="n">
-        <v>579261.8979264819</v>
+        <v>579261.8979264817</v>
       </c>
       <c r="E6" t="n">
-        <v>326647.4699624005</v>
+        <v>326647.4699624009</v>
       </c>
       <c r="F6" t="n">
         <v>652059.9317697558</v>
       </c>
       <c r="G6" t="n">
+        <v>652059.9317697561</v>
+      </c>
+      <c r="H6" t="n">
+        <v>652059.9317697559</v>
+      </c>
+      <c r="I6" t="n">
+        <v>652059.9317697559</v>
+      </c>
+      <c r="J6" t="n">
+        <v>434528.7293724786</v>
+      </c>
+      <c r="K6" t="n">
         <v>652059.9317697563</v>
       </c>
-      <c r="H6" t="n">
-        <v>652059.9317697563</v>
-      </c>
-      <c r="I6" t="n">
+      <c r="L6" t="n">
         <v>652059.931769756</v>
       </c>
-      <c r="J6" t="n">
-        <v>434528.7293724784</v>
-      </c>
-      <c r="K6" t="n">
-        <v>635800.1801485862</v>
-      </c>
-      <c r="L6" t="n">
-        <v>655227.8981422181</v>
-      </c>
       <c r="M6" t="n">
-        <v>570172.8702067059</v>
+        <v>567004.9038342441</v>
       </c>
       <c r="N6" t="n">
-        <v>655227.8981422179</v>
+        <v>652059.931769756</v>
       </c>
       <c r="O6" t="n">
-        <v>655227.8981422177</v>
+        <v>652059.9317697561</v>
       </c>
       <c r="P6" t="n">
         <v>652059.9317697563</v>
@@ -26710,19 +26712,19 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>24.28464749203979</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>24.28464749203979</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26735,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
         <v>1089.776700593298</v>
       </c>
       <c r="D3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26787,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.401455402293</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26932,7 +26934,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -26957,19 +26959,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483754</v>
+        <v>278.1987997483752</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27009,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.401455402293</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973558</v>
+        <v>341.3068326973556</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27169,7 +27171,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27255,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.401455402293</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973558</v>
+        <v>341.3068326973556</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27385,7 +27387,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27430,7 +27432,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>250.995171958902</v>
@@ -27439,10 +27441,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>256.7665117192686</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>99.24424374768444</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27534,25 +27536,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>96.35242040983809</v>
@@ -27582,13 +27584,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004732</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>146.4621057720834</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -27597,13 +27599,13 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>137.3793388430052</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27619,7 +27621,7 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -27634,7 +27636,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,7 +27666,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -27673,13 +27675,13 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>161.2723701802168</v>
+        <v>243.9312612532526</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27771,25 +27773,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>50.57955000897158</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>7.788955283445546</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -27828,7 +27830,7 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -27850,13 +27852,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>113.0913093320065</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -27871,7 +27873,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27904,22 +27906,22 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>45.35834646997219</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28011,25 +28013,25 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28059,13 +28061,13 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>140.2192849623999</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -28074,7 +28076,7 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>158.003952183248</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -29667,76 +29669,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -29815,7 +29817,7 @@
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29906,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -30141,76 +30143,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>24.28464749203979</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>24.28464749203979</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>24.28464749203979</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>24.28464749203979</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>24.28464749203979</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>24.28464749203979</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>24.28464749203979</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>24.28464749203979</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>24.28464749203979</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>24.28464749203979</v>
+        <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>24.28464749203979</v>
+        <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>24.28464749203979</v>
+        <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>24.28464749203979</v>
+        <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>24.28464749203979</v>
+        <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>24.28464749203979</v>
+        <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>24.28464749203979</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>24.28464749203979</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>24.28464749203979</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>24.28464749203979</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>24.28464749203979</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>24.28464749203979</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>24.28464749203979</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>24.28464749203979</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>24.28464749203979</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -30378,76 +30380,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.28464749203979</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>24.28464749203979</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>24.28464749203979</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>24.28464749203979</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>24.28464749203979</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>24.28464749203979</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>24.28464749203979</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>24.28464749203979</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>24.28464749203979</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>24.28464749203979</v>
+        <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>24.28464749203979</v>
+        <v>0</v>
       </c>
       <c r="M40" t="n">
-        <v>24.28464749203979</v>
+        <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>24.28464749203979</v>
+        <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>24.28464749203979</v>
+        <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>24.28464749203979</v>
+        <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.28464749203979</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>24.28464749203979</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>24.28464749203979</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>24.28464749203979</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>24.28464749203979</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>24.28464749203979</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>24.28464749203979</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>24.28464749203979</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.28464749203979</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30617,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -31039,7 +31041,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H2" t="n">
         <v>44.86703772844668</v>
@@ -31048,40 +31050,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J2" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K2" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R2" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T2" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,46 +31120,46 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H3" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K3" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O3" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q3" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R3" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31200,43 +31202,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H4" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J4" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K4" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L4" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M4" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P4" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q4" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U4" t="n">
         <v>0.1071911508780295</v>
@@ -31513,7 +31515,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H8" t="n">
         <v>44.86703772844668</v>
@@ -31522,40 +31524,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J8" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K8" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T8" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,46 +31594,46 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H9" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026431</v>
       </c>
       <c r="K9" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O9" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q9" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R9" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31674,43 +31676,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H10" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K10" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L10" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M10" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P10" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q10" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U10" t="n">
         <v>0.1071911508780295</v>
@@ -31838,7 +31840,7 @@
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
         <v>475.1391886422585</v>
@@ -31847,22 +31849,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N12" t="n">
-        <v>322.6999460717714</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>353.3934907042774</v>
       </c>
       <c r="Q12" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
         <v>54.65449286742438</v>
@@ -31987,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +32001,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162566</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L15" t="n">
-        <v>610.054682604365</v>
+        <v>423.9151577118737</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
         <v>131.3417120833333</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R15" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32150,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32177,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32312,13 +32314,13 @@
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M18" t="n">
         <v>745.5466476862121</v>
@@ -32327,13 +32329,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>400.5469039565762</v>
+        <v>388.514013929771</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
@@ -32549,28 +32551,28 @@
         <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>242.2322097768141</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>506.0735392239789</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>182.6892564418561</v>
@@ -32704,7 +32706,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I23" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J23" t="n">
         <v>466.7546155663283</v>
@@ -32786,16 +32788,16 @@
         <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M24" t="n">
-        <v>409.0029787211721</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
         <v>765.2790490071785</v>
@@ -32804,13 +32806,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>250.3097721075164</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -33023,19 +33025,19 @@
         <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>399.9031616963283</v>
       </c>
       <c r="M27" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>602.8420149078241</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
         <v>700.0808204437243</v>
@@ -33044,10 +33046,10 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33260,7 +33262,7 @@
         <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
         <v>475.1391886422585</v>
@@ -33269,7 +33271,7 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>409.0029787211721</v>
+        <v>169.2687847673337</v>
       </c>
       <c r="N30" t="n">
         <v>765.2790490071785</v>
@@ -33278,13 +33280,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33415,7 +33417,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J32" t="n">
         <v>466.7546155663283</v>
@@ -33497,31 +33499,31 @@
         <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>716.71805534327</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>543.0832917018711</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33655,7 +33657,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
-        <v>466.7546155663288</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
         <v>699.5441750817575</v>
@@ -33676,7 +33678,7 @@
         <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
         <v>345.4516222043725</v>
@@ -33734,7 +33736,7 @@
         <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
         <v>475.1391886422585</v>
@@ -33746,10 +33748,10 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>428.7353800421384</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>551.7051287319853</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
@@ -33758,7 +33760,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33889,7 +33891,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
@@ -33913,7 +33915,7 @@
         <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
         <v>345.4516222043725</v>
@@ -33971,16 +33973,16 @@
         <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>211.7351844430274</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N39" t="n">
         <v>765.2790490071785</v>
@@ -33992,10 +33994,10 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>167.1165249313368</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34153,7 +34155,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S41" t="n">
         <v>125.31755462929</v>
@@ -34208,13 +34210,13 @@
         <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>399.9031616963283</v>
       </c>
       <c r="M42" t="n">
         <v>745.5466476862121</v>
@@ -34223,13 +34225,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>164.9290651940687</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>145.679503963964</v>
@@ -34445,31 +34447,31 @@
         <v>99.52238</v>
       </c>
       <c r="J45" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>583.1096135868578</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>543.0832917018711</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34696,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N2" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882193</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P2" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,25 +34777,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K3" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P3" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q3" t="n">
         <v>159.2338966127272</v>
@@ -34854,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.57841661306625</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K4" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L4" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M4" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N4" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O4" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P4" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789368</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35170,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N8" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193719</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,25 +35251,25 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597635</v>
       </c>
       <c r="K9" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P9" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q9" t="n">
         <v>159.2338966127272</v>
@@ -35328,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K10" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L10" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M10" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N10" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O10" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P10" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789368</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35486,7 +35488,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>337.2977496678996</v>
@@ -35495,22 +35497,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>191.358233988438</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>219.4190832899471</v>
       </c>
       <c r="Q12" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35641,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462693</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,13 +35725,13 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>471.5003028244908</v>
+        <v>285.3607779319996</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
@@ -35738,16 +35740,16 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35960,13 +35962,13 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
@@ -35975,13 +35977,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>257.9506595121318</v>
+        <v>245.9177694853266</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36139,7 +36141,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
         <v>129.8660843902404</v>
@@ -36197,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>103.6778299969399</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>372.0991318096486</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>37.00975247789211</v>
@@ -36352,7 +36354,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
@@ -36379,7 +36381,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,16 +36436,16 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>266.8689447991538</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
         <v>633.9373369238452</v>
@@ -36452,13 +36454,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>116.3353646931862</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36671,19 +36673,19 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>261.3487819164541</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>471.5003028244908</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
         <v>557.4845759992799</v>
@@ -36692,10 +36694,10 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36908,7 +36910,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>337.2977496678996</v>
@@ -36917,7 +36919,7 @@
         <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>266.8689447991538</v>
+        <v>27.13475084531539</v>
       </c>
       <c r="N30" t="n">
         <v>633.9373369238452</v>
@@ -36926,13 +36928,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,28 +36989,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>105.3311307549931</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>288.6172359016747</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>418.6266618111712</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>450.5570744930848</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
-        <v>445.9107804819471</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>397.5465471980851</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
-        <v>319.9164207986647</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q31" t="n">
-        <v>144.686904791938</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37063,7 +37065,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
@@ -37145,31 +37147,31 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>574.5840214212516</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>409.1088842875408</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,28 +37226,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>105.3311307549931</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>288.6172359016746</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>418.6266618111711</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>450.5570744930848</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
-        <v>445.9107804819471</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>397.5465471980851</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
-        <v>319.9164207986647</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q34" t="n">
-        <v>144.686904791938</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37303,7 +37305,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
         <v>479.454324036777</v>
@@ -37324,7 +37326,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
         <v>129.8660843902404</v>
@@ -37382,7 +37384,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>337.2977496678996</v>
@@ -37394,10 +37396,10 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>297.3936679588052</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>409.1088842875408</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37406,7 +37408,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,28 +37463,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>105.3311307549932</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>288.6172359016747</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>418.6266618111712</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>450.5570744930849</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
-        <v>445.9107804819472</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>397.5465471980852</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
-        <v>319.9164207986647</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q37" t="n">
-        <v>144.6869047919382</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37537,7 +37539,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
@@ -37561,7 +37563,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
         <v>129.8660843902404</v>
@@ -37619,16 +37621,16 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>73.18080466315317</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
         <v>633.9373369238452</v>
@@ -37640,10 +37642,10 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>27.13475084531527</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>105.3311307549932</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>288.6172359016747</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>418.6266618111712</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>450.5570744930849</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
-        <v>445.9107804819472</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>397.5465471980852</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
-        <v>319.9164207986647</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q40" t="n">
-        <v>144.6869047919382</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37801,7 +37803,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,13 +37858,13 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>261.3487819164541</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
@@ -37871,13 +37873,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>22.33282074962425</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>105.3311307549931</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>288.6172359016747</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>418.6266618111712</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>450.5570744930848</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
-        <v>445.9107804819471</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>397.5465471980851</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
-        <v>319.9164207986647</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q43" t="n">
-        <v>144.686904791938</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38093,31 +38095,31 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>440.9755796648395</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>409.1088842875408</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_21_38.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_21_38.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3659959.074910012</v>
+        <v>3655946.464896019</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283187</v>
+        <v>416855.1052283186</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7646700.502757089</v>
+        <v>7646700.502757088</v>
       </c>
     </row>
     <row r="11">
@@ -658,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -667,10 +667,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>221.5979551933727</v>
       </c>
       <c r="G2" t="n">
         <v>410.9217256534534</v>
@@ -712,22 +712,22 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>270.4868569307846</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -758,7 +758,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247723</v>
+        <v>18.8172186824772</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -816,10 +816,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -828,16 +828,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -870,22 +870,22 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>73.08684350408575</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>75.41231307284865</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -895,13 +895,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -913,10 +913,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -949,22 +949,22 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>83.82099721688236</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>17.35112070699669</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1053,19 +1053,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>137.6320927394857</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>166.0258082590282</v>
@@ -1074,7 +1074,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1101,19 +1101,19 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>157.7822070347172</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -1132,13 +1132,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>269.6425323314741</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>274.8938243119926</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -1147,13 +1147,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>410.9217256534534</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,13 +1183,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -1198,10 +1198,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1232,7 +1232,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I9" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,10 +1259,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S9" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T9" t="n">
         <v>190.7165703189231</v>
@@ -1299,19 +1299,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>13.02719212039627</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1338,28 +1338,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004732</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>67.70570320578919</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1387,7 +1387,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444135</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576155</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1435,7 +1435,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784681</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1466,7 +1466,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1527,13 +1527,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>122.6028762599951</v>
       </c>
       <c r="C13" t="n">
-        <v>27.77749086859478</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1624,7 +1624,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444123</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1657,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576155</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1767,25 +1767,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>133.3133845470783</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428169</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,10 +1812,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
@@ -1833,7 +1833,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1852,7 +1852,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722614</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
@@ -2001,25 +2001,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>136.1078891637031</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2095,7 +2095,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H20" t="n">
         <v>283.1540821444137</v>
@@ -2134,10 +2134,10 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
-        <v>199.0222304576155</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2241,25 +2241,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>20.89983420622057</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2295,7 +2295,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2481,19 +2481,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H25" t="n">
-        <v>41.16673120696609</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2535,7 +2535,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2718,13 +2718,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>42.5313457611372</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>42.5313457611381</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
@@ -2955,22 +2955,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>37.17792077063358</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3009,7 +3009,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -3018,7 +3018,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3028,7 +3028,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
@@ -3097,7 +3097,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560522</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -3192,22 +3192,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3249,7 +3249,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>159.8103881934326</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -3316,13 +3316,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3429,22 +3429,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3483,13 +3483,13 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
-        <v>45.31583743121404</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -3660,16 +3660,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -3678,10 +3678,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>103.9877674501602</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3714,7 +3714,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
         <v>286.1844743892441</v>
@@ -3897,7 +3897,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
@@ -3918,7 +3918,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,16 +3945,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>148.1185786361436</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.1844743892441</v>
+        <v>105.6507867899569</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -3966,7 +3966,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -4146,16 +4146,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>6.600826611594925</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,16 +4182,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.1844743892441</v>
+        <v>172.0260335000785</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4203,7 +4203,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4306,16 +4306,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1959.379186075721</v>
+        <v>2158.017852261502</v>
       </c>
       <c r="C2" t="n">
-        <v>1590.416669135309</v>
+        <v>1789.05533532109</v>
       </c>
       <c r="D2" t="n">
-        <v>1232.150970528558</v>
+        <v>1430.789636714339</v>
       </c>
       <c r="E2" t="n">
-        <v>1232.150970528558</v>
+        <v>1045.001384116095</v>
       </c>
       <c r="F2" t="n">
         <v>821.1650657389509</v>
@@ -4327,55 +4327,55 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810564</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520487</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U2" t="n">
-        <v>3009.337405520487</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="V2" t="n">
-        <v>3009.337405520487</v>
+        <v>2884.252265792696</v>
       </c>
       <c r="W2" t="n">
-        <v>3009.337405520487</v>
+        <v>2531.483610522581</v>
       </c>
       <c r="X2" t="n">
-        <v>2736.118358115654</v>
+        <v>2158.017852261502</v>
       </c>
       <c r="Y2" t="n">
-        <v>2345.979026139843</v>
+        <v>2158.017852261502</v>
       </c>
     </row>
     <row r="3">
@@ -4406,10 +4406,10 @@
         <v>85.51940803064525</v>
       </c>
       <c r="I3" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K3" t="n">
         <v>398.4535849031479</v>
@@ -4464,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>510.7590362090544</v>
+        <v>945.3964936596652</v>
       </c>
       <c r="C4" t="n">
-        <v>510.7590362090544</v>
+        <v>776.4603107317583</v>
       </c>
       <c r="D4" t="n">
-        <v>360.6423967967187</v>
+        <v>626.3436713194226</v>
       </c>
       <c r="E4" t="n">
-        <v>212.7293032143256</v>
+        <v>478.4305777370295</v>
       </c>
       <c r="F4" t="n">
-        <v>212.7293032143256</v>
+        <v>331.5406302391191</v>
       </c>
       <c r="G4" t="n">
-        <v>212.7293032143256</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="H4" t="n">
-        <v>66.5121164321834</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I4" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J4" t="n">
         <v>111.634748879119</v>
@@ -4518,22 +4518,22 @@
         <v>1645.778206672847</v>
       </c>
       <c r="T4" t="n">
-        <v>1571.953112224276</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U4" t="n">
-        <v>1282.850245349919</v>
+        <v>1347.837537633435</v>
       </c>
       <c r="V4" t="n">
-        <v>1028.165757144032</v>
+        <v>1347.837537633435</v>
       </c>
       <c r="W4" t="n">
-        <v>738.7485871070718</v>
+        <v>1347.837537633435</v>
       </c>
       <c r="X4" t="n">
-        <v>510.7590362090544</v>
+        <v>1347.837537633435</v>
       </c>
       <c r="Y4" t="n">
-        <v>510.7590362090544</v>
+        <v>1127.044958489905</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1944.904841306683</v>
+        <v>2047.583838282732</v>
       </c>
       <c r="C5" t="n">
-        <v>1575.942324366272</v>
+        <v>1678.62132134232</v>
       </c>
       <c r="D5" t="n">
-        <v>1575.942324366272</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E5" t="n">
-        <v>1190.154071768027</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F5" t="n">
-        <v>779.1681669784198</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G5" t="n">
-        <v>364.0957168234162</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H5" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912105</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810571</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329466</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001391</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060173</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.52802693951</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296688</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.58875505237</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136267</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520488</v>
+        <v>3215.315153136267</v>
       </c>
       <c r="U5" t="n">
-        <v>2755.806928794324</v>
+        <v>3215.315153136267</v>
       </c>
       <c r="V5" t="n">
-        <v>2671.139254837878</v>
+        <v>3215.315153136267</v>
       </c>
       <c r="W5" t="n">
-        <v>2318.370599567763</v>
+        <v>3197.788768583745</v>
       </c>
       <c r="X5" t="n">
-        <v>1944.904841306683</v>
+        <v>2824.323010322666</v>
       </c>
       <c r="Y5" t="n">
-        <v>1944.904841306683</v>
+        <v>2434.183678346854</v>
       </c>
     </row>
     <row r="6">
@@ -4622,40 +4622,40 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811095</v>
+        <v>941.5438544811091</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999825</v>
+        <v>767.0908251999821</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387314</v>
+        <v>618.1564155387309</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332758</v>
+        <v>458.9189605332754</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601609</v>
+        <v>312.3844025601604</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927789</v>
+        <v>176.0213023927784</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064583</v>
+        <v>85.51940803064586</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J6" t="n">
         <v>160.189385922801</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031484</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158141</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M6" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
         <v>1685.951113992584</v>
@@ -4670,16 +4670,16 @@
         <v>2565.053542533342</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125858</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619338</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T6" t="n">
         <v>2242.828302297193</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431609</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V6" t="n">
         <v>1779.608347199866</v>
@@ -4691,7 +4691,7 @@
         <v>1317.519490266131</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501178</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="7">
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>618.4760397199826</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="C7" t="n">
-        <v>618.4760397199826</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D7" t="n">
-        <v>618.4760397199826</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E7" t="n">
-        <v>470.5629461375895</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F7" t="n">
-        <v>331.5406302391191</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G7" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="H7" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J7" t="n">
         <v>111.634748879119</v>
@@ -4749,28 +4749,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R7" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S7" t="n">
-        <v>1645.778206672847</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T7" t="n">
-        <v>1645.778206672847</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U7" t="n">
-        <v>1356.675339798491</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="V7" t="n">
-        <v>1356.675339798491</v>
+        <v>1767.918581386758</v>
       </c>
       <c r="W7" t="n">
-        <v>1067.25816976153</v>
+        <v>1478.501411349798</v>
       </c>
       <c r="X7" t="n">
-        <v>839.2686188635128</v>
+        <v>1250.51186045178</v>
       </c>
       <c r="Y7" t="n">
-        <v>618.4760397199826</v>
+        <v>1029.71928130825</v>
       </c>
     </row>
     <row r="8">
@@ -4780,25 +4780,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2005.586939522201</v>
+        <v>1491.569348694472</v>
       </c>
       <c r="C8" t="n">
-        <v>1636.624422581789</v>
+        <v>1491.569348694472</v>
       </c>
       <c r="D8" t="n">
-        <v>1278.358723975039</v>
+        <v>1213.898819086399</v>
       </c>
       <c r="E8" t="n">
-        <v>892.5704713767946</v>
+        <v>828.1105664881545</v>
       </c>
       <c r="F8" t="n">
-        <v>481.5845665871869</v>
+        <v>417.1246616985469</v>
       </c>
       <c r="G8" t="n">
-        <v>66.51211643218342</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H8" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
         <v>66.51211643218342</v>
@@ -4807,7 +4807,7 @@
         <v>255.3912473912089</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L8" t="n">
         <v>1040.244834329464</v>
@@ -4831,25 +4831,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T8" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U8" t="n">
-        <v>2961.784676410102</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V8" t="n">
-        <v>2630.721789066532</v>
+        <v>2994.5429342656</v>
       </c>
       <c r="W8" t="n">
-        <v>2277.953133796417</v>
+        <v>2641.774278995485</v>
       </c>
       <c r="X8" t="n">
-        <v>2277.953133796417</v>
+        <v>2268.308520734406</v>
       </c>
       <c r="Y8" t="n">
-        <v>2277.953133796417</v>
+        <v>1878.169188758594</v>
       </c>
     </row>
     <row r="9">
@@ -4859,37 +4859,37 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
         <v>176.0213023927779</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064537</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031473</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158128</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
@@ -4916,7 +4916,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V9" t="n">
         <v>1779.608347199865</v>
@@ -4925,10 +4925,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="10">
@@ -4938,25 +4938,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>532.4548862703364</v>
+        <v>1007.446783179745</v>
       </c>
       <c r="C10" t="n">
-        <v>363.5187033424295</v>
+        <v>838.5106002518381</v>
       </c>
       <c r="D10" t="n">
-        <v>213.4020639300938</v>
+        <v>688.3939608395024</v>
       </c>
       <c r="E10" t="n">
-        <v>213.4020639300938</v>
+        <v>540.4808672571093</v>
       </c>
       <c r="F10" t="n">
-        <v>66.51211643218342</v>
+        <v>393.5909197591989</v>
       </c>
       <c r="G10" t="n">
-        <v>66.51211643218342</v>
+        <v>225.8880831339178</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218342</v>
+        <v>79.67089635177561</v>
       </c>
       <c r="I10" t="n">
         <v>66.51211643218342</v>
@@ -4965,16 +4965,16 @@
         <v>111.634748879119</v>
       </c>
       <c r="K10" t="n">
-        <v>315.6219318279955</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L10" t="n">
-        <v>632.1817302764916</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M10" t="n">
-        <v>976.3387758760407</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N10" t="n">
-        <v>1317.747152581906</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O10" t="n">
         <v>1617.076751502319</v>
@@ -4986,28 +4986,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S10" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T10" t="n">
-        <v>1615.697475415547</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U10" t="n">
-        <v>1326.594608541191</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="V10" t="n">
-        <v>1071.910120335304</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="W10" t="n">
-        <v>782.492950298343</v>
+        <v>1637.877378051532</v>
       </c>
       <c r="X10" t="n">
-        <v>714.1033511005761</v>
+        <v>1409.887827153515</v>
       </c>
       <c r="Y10" t="n">
-        <v>714.1033511005761</v>
+        <v>1189.095248009985</v>
       </c>
     </row>
     <row r="11">
@@ -5026,19 +5026,19 @@
         <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192588</v>
       </c>
       <c r="J11" t="n">
         <v>378.1925803111717</v>
@@ -5053,7 +5053,7 @@
         <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
         <v>3640.42229106801</v>
@@ -5062,28 +5062,28 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R11" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5114,31 +5114,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>95.584050252739</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K12" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L12" t="n">
-        <v>923.0670414349511</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>923.0670414349511</v>
+        <v>1373.553594266882</v>
       </c>
       <c r="N12" t="n">
-        <v>1550.665004989558</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O12" t="n">
-        <v>2102.574735228845</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5175,37 +5175,37 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>580.8993044876688</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C13" t="n">
-        <v>552.8412329032296</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D13" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E13" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F13" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G13" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
@@ -5223,28 +5223,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y13" t="n">
-        <v>762.5477693179085</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="14">
@@ -5254,34 +5254,34 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D14" t="n">
         <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362672</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5299,31 +5299,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="15">
@@ -5351,34 +5351,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L15" t="n">
-        <v>710.248605371872</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>1307.627092998424</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>1307.627092998424</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O15" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>917.5010142286973</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C16" t="n">
-        <v>917.5010142286973</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D16" t="n">
-        <v>767.3843748163615</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E16" t="n">
-        <v>619.4712812339684</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578601</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1871.240688199802</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1616.556199993915</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1327.139029956954</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>1099.149479058937</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>1099.149479058937</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="17">
@@ -5497,7 +5497,7 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
         <v>1204.759558406469</v>
@@ -5506,19 +5506,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J17" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5591,28 +5591,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>427.7414352191925</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1025.119922845744</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>1652.717886400351</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.061288060775</v>
@@ -5649,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>695.5020655703109</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>695.5020655703109</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D19" t="n">
-        <v>545.3854261579752</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E19" t="n">
-        <v>407.9027098310023</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F19" t="n">
-        <v>261.0127623330919</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G19" t="n">
-        <v>93.81666304797187</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H19" t="n">
         <v>93.81666304797187</v>
@@ -5734,13 +5734,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
@@ -5755,7 +5755,7 @@
         <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5767,7 +5767,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5782,7 +5782,7 @@
         <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
         <v>4151.812499466573</v>
@@ -5828,31 +5828,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>923.0670414349511</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1520.445529061503</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>2148.04349261611</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
-        <v>2148.04349261611</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>802.9288273958734</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>781.8178837532264</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D22" t="n">
-        <v>631.7012443408906</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E22" t="n">
-        <v>631.7012443408906</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5943,19 +5943,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1977.461080510508</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1722.776592304621</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1433.359422267661</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>1205.369871369643</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>984.5772922261132</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5965,34 +5965,34 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J23" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -6022,19 +6022,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="24">
@@ -6065,28 +6065,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>427.7414352191925</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1025.119922845744</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1652.717886400351</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>2204.627616639638</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
         <v>2553.061288060775</v>
@@ -6123,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>768.5380889459582</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>599.6019060180513</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>449.4852666057155</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E25" t="n">
-        <v>449.4852666057155</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F25" t="n">
-        <v>302.5953191078052</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G25" t="n">
-        <v>135.3992198226851</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
         <v>93.81666304797187</v>
@@ -6183,16 +6183,16 @@
         <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1688.385853854706</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1398.968683817745</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>1170.979132919728</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>950.1865537761979</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6202,43 +6202,43 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
@@ -6247,7 +6247,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
@@ -6259,19 +6259,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="27">
@@ -6302,25 +6302,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>352.5519571452614</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>949.9304447718133</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1577.52840832642</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
         <v>2553.061288060775</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>2940.5785039035</v>
+        <v>696.7084350851671</v>
       </c>
       <c r="C28" t="n">
-        <v>2771.642320975594</v>
+        <v>527.7722521572603</v>
       </c>
       <c r="D28" t="n">
-        <v>2771.642320975594</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E28" t="n">
-        <v>2771.642320975594</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F28" t="n">
-        <v>2728.681365661313</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G28" t="n">
-        <v>2561.485266376193</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H28" t="n">
-        <v>2419.773435218391</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T28" t="n">
-        <v>4404.185983673937</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U28" t="n">
-        <v>4115.110757018135</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V28" t="n">
-        <v>3860.426268812248</v>
+        <v>1616.556199993915</v>
       </c>
       <c r="W28" t="n">
-        <v>3571.009098775287</v>
+        <v>1327.139029956954</v>
       </c>
       <c r="X28" t="n">
-        <v>3343.01954787727</v>
+        <v>1099.149479058937</v>
       </c>
       <c r="Y28" t="n">
-        <v>3122.22696873374</v>
+        <v>878.3568999154069</v>
       </c>
     </row>
     <row r="29">
@@ -6466,19 +6466,19 @@
         <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6539,25 +6539,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>923.0670414349511</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>949.9304447718133</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1577.52840832642</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
         <v>2553.061288060775</v>
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>989.3306680894883</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>820.3944851615814</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D31" t="n">
-        <v>670.2778457492457</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E31" t="n">
-        <v>522.3647521668526</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F31" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6657,16 +6657,16 @@
         <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1688.385853854706</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1398.968683817745</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>1170.979132919728</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>1170.979132919728</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6694,55 +6694,55 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6773,28 +6773,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797186</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>923.0670414349511</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1520.445529061503</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>2148.04349261611</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>2148.04349261611</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
         <v>2553.061288060775</v>
@@ -6834,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>641.8461362382112</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>472.9099533103043</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D34" t="n">
-        <v>322.7933138979686</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E34" t="n">
-        <v>322.7933138979686</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F34" t="n">
-        <v>175.9033664000582</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G34" t="n">
-        <v>175.9033664000582</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
         <v>174.0526814782957</v>
@@ -6897,13 +6897,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1272.276731109998</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>1044.287180211981</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>823.4946010684509</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -7013,22 +7013,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>923.0670414349511</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1520.445529061503</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>2148.04349261611</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
         <v>2553.061288060775</v>
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>950.7540666811333</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>781.8178837532264</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D37" t="n">
-        <v>631.7012443408906</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E37" t="n">
-        <v>631.7012443408906</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F37" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
@@ -7131,16 +7131,16 @@
         <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1642.612280691864</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1353.195110654903</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>1353.195110654903</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>1132.402531511373</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7171,13 +7171,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192595</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7189,7 +7189,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7250,28 +7250,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>923.0670414349511</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>923.0670414349511</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1550.665004989558</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>2102.574735228845</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2526.197884723913</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
         <v>2553.061288060775</v>
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>915.1035305473698</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>746.1673476194629</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D40" t="n">
-        <v>596.0507082071272</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E40" t="n">
-        <v>448.1376146247341</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F40" t="n">
-        <v>448.1376146247341</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G40" t="n">
-        <v>280.941515339614</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
@@ -7362,22 +7362,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2197.062545487567</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1907.987318831765</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1653.302830625878</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1363.885660588917</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>1135.8961096909</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>915.1035305473698</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7399,10 +7399,10 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
@@ -7411,10 +7411,10 @@
         <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7426,7 +7426,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7487,25 +7487,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>352.5519571452614</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>949.9304447718133</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1577.52840832642</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
         <v>2553.061288060775</v>
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1016.58045691144</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C43" t="n">
-        <v>847.6442739835331</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D43" t="n">
-        <v>697.5276345711974</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E43" t="n">
-        <v>549.6145409888043</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7593,28 +7593,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2297.348357685166</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T43" t="n">
-        <v>2077.746892708107</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="U43" t="n">
-        <v>1788.671666052305</v>
+        <v>2273.199413378161</v>
       </c>
       <c r="V43" t="n">
-        <v>1533.987177846418</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W43" t="n">
-        <v>1244.570007809457</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X43" t="n">
-        <v>1016.58045691144</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y43" t="n">
-        <v>1016.58045691144</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="44">
@@ -7624,34 +7624,34 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192595</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7663,7 +7663,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7681,19 +7681,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="45">
@@ -7724,25 +7724,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>923.0670414349511</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1520.445529061503</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>2148.04349261611</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>2148.04349261611</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
         <v>2553.061288060775</v>
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>734.6461798836013</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C46" t="n">
-        <v>565.7099969556945</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D46" t="n">
-        <v>415.5933575433587</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E46" t="n">
-        <v>267.6802639609656</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F46" t="n">
-        <v>261.0127623330919</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G46" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7830,28 +7830,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510508</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854706</v>
+        <v>2273.199413378161</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.701365648819</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611858</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138411</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y46" t="n">
-        <v>916.2946447138411</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
   </sheetData>
@@ -23415,13 +23415,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="C13" t="n">
-        <v>139.4693302300331</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -23436,7 +23436,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23655,25 +23655,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>12.10766347585295</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23703,7 +23703,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23721,7 +23721,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23889,25 +23889,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>10.32607348286604</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I19" t="n">
         <v>81.26583631856553</v>
@@ -24129,25 +24129,25 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>146.3469868924073</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24183,7 +24183,7 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24369,19 +24369,19 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H25" t="n">
-        <v>99.1279816392578</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856553</v>
@@ -24423,7 +24423,7 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24606,13 +24606,13 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>106.0841272570752</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>102.8897022617931</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -24843,22 +24843,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>108.2431272522977</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24897,7 +24897,7 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -24906,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25080,22 +25080,22 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25137,7 +25137,7 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>126.7126101431584</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25317,22 +25317,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25371,13 +25371,13 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>206.821805892614</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25548,16 +25548,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
@@ -25566,10 +25566,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>36.30694539606372</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25602,7 +25602,7 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25785,7 +25785,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -25806,7 +25806,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,16 +25833,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>32.90770736550095</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>180.5336875992872</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -25854,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -26034,16 +26034,16 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>138.8202214113363</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,16 +26070,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>114.1584408891656</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26091,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>658526.1030172636</v>
+        <v>658526.1030172635</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>658526.1030172636</v>
+        <v>658526.1030172635</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>658526.1030172636</v>
+        <v>658526.1030172635</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>658526.1030172636</v>
+        <v>658526.1030172635</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>658526.1030172636</v>
+        <v>658526.1030172635</v>
       </c>
     </row>
     <row r="10">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>658526.1030172636</v>
+        <v>658526.1030172635</v>
       </c>
     </row>
     <row r="12">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>658526.1030172636</v>
+        <v>658526.1030172635</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>658526.1030172636</v>
+        <v>658526.1030172635</v>
       </c>
     </row>
     <row r="15">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>658526.1030172635</v>
+        <v>658526.1030172636</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>779989.6813710689</v>
+      </c>
+      <c r="C2" t="n">
+        <v>779989.6813710688</v>
+      </c>
+      <c r="D2" t="n">
         <v>779989.681371069</v>
       </c>
-      <c r="C2" t="n">
-        <v>779989.681371069</v>
-      </c>
-      <c r="D2" t="n">
-        <v>779989.6813710693</v>
-      </c>
       <c r="E2" t="n">
+        <v>766789.2697055059</v>
+      </c>
+      <c r="F2" t="n">
+        <v>766789.269705506</v>
+      </c>
+      <c r="G2" t="n">
+        <v>766789.2697055058</v>
+      </c>
+      <c r="H2" t="n">
+        <v>766789.2697055056</v>
+      </c>
+      <c r="I2" t="n">
+        <v>766789.2697055059</v>
+      </c>
+      <c r="J2" t="n">
+        <v>766789.2697055058</v>
+      </c>
+      <c r="K2" t="n">
+        <v>766789.2697055059</v>
+      </c>
+      <c r="L2" t="n">
         <v>766789.2697055057</v>
       </c>
-      <c r="F2" t="n">
+      <c r="M2" t="n">
+        <v>766789.2697055056</v>
+      </c>
+      <c r="N2" t="n">
+        <v>766789.2697055057</v>
+      </c>
+      <c r="O2" t="n">
         <v>766789.2697055058</v>
       </c>
-      <c r="G2" t="n">
-        <v>766789.2697055057</v>
-      </c>
-      <c r="H2" t="n">
-        <v>766789.2697055057</v>
-      </c>
-      <c r="I2" t="n">
-        <v>766789.2697055057</v>
-      </c>
-      <c r="J2" t="n">
-        <v>766789.2697055059</v>
-      </c>
-      <c r="K2" t="n">
-        <v>766789.269705506</v>
-      </c>
-      <c r="L2" t="n">
-        <v>766789.2697055059</v>
-      </c>
-      <c r="M2" t="n">
+      <c r="P2" t="n">
         <v>766789.2697055058</v>
-      </c>
-      <c r="N2" t="n">
-        <v>766789.2697055058</v>
-      </c>
-      <c r="O2" t="n">
-        <v>766789.2697055059</v>
-      </c>
-      <c r="P2" t="n">
-        <v>766789.269705506</v>
       </c>
     </row>
     <row r="3">
@@ -26371,7 +26371,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>1.947259988810401e-10</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>325412.4618073549</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551187</v>
+        <v>85055.02793551178</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,28 +26417,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>92793.84288319404</v>
+        <v>92793.84288319401</v>
       </c>
       <c r="C4" t="n">
-        <v>92793.84288319403</v>
+        <v>92793.84288319395</v>
       </c>
       <c r="D4" t="n">
-        <v>92793.84288319404</v>
+        <v>92793.84288319405</v>
       </c>
       <c r="E4" t="n">
+        <v>13606.80811184278</v>
+      </c>
+      <c r="F4" t="n">
+        <v>13606.80811184281</v>
+      </c>
+      <c r="G4" t="n">
         <v>13606.80811184274</v>
       </c>
-      <c r="F4" t="n">
+      <c r="H4" t="n">
         <v>13606.80811184274</v>
       </c>
-      <c r="G4" t="n">
-        <v>13606.80811184275</v>
-      </c>
-      <c r="H4" t="n">
-        <v>13606.80811184275</v>
-      </c>
       <c r="I4" t="n">
-        <v>13606.80811184275</v>
+        <v>13606.80811184274</v>
       </c>
       <c r="J4" t="n">
         <v>13606.80811184275</v>
@@ -26447,19 +26447,19 @@
         <v>13606.80811184274</v>
       </c>
       <c r="L4" t="n">
-        <v>13606.80811184281</v>
+        <v>13606.80811184274</v>
       </c>
       <c r="M4" t="n">
+        <v>13606.80811184275</v>
+      </c>
+      <c r="N4" t="n">
         <v>13606.80811184274</v>
-      </c>
-      <c r="N4" t="n">
-        <v>13606.80811184275</v>
       </c>
       <c r="O4" t="n">
         <v>13606.80811184275</v>
       </c>
       <c r="P4" t="n">
-        <v>13606.80811184275</v>
+        <v>13606.80811184274</v>
       </c>
     </row>
     <row r="5">
@@ -26524,46 +26524,46 @@
         <v>-749482.8478011109</v>
       </c>
       <c r="C6" t="n">
+        <v>579261.8979264816</v>
+      </c>
+      <c r="D6" t="n">
         <v>579261.8979264818</v>
       </c>
-      <c r="D6" t="n">
-        <v>579261.8979264817</v>
-      </c>
       <c r="E6" t="n">
-        <v>326647.4699624009</v>
+        <v>326300.0907080441</v>
       </c>
       <c r="F6" t="n">
-        <v>652059.9317697558</v>
+        <v>651712.5525153989</v>
       </c>
       <c r="G6" t="n">
-        <v>652059.9317697561</v>
+        <v>651712.5525153991</v>
       </c>
       <c r="H6" t="n">
-        <v>652059.9317697559</v>
+        <v>651712.5525153988</v>
       </c>
       <c r="I6" t="n">
-        <v>652059.9317697559</v>
+        <v>651712.5525153992</v>
       </c>
       <c r="J6" t="n">
-        <v>434528.7293724786</v>
+        <v>434181.3501181214</v>
       </c>
       <c r="K6" t="n">
-        <v>652059.9317697563</v>
+        <v>651712.5525153992</v>
       </c>
       <c r="L6" t="n">
-        <v>652059.931769756</v>
+        <v>651712.5525153991</v>
       </c>
       <c r="M6" t="n">
-        <v>567004.9038342441</v>
+        <v>566657.524579887</v>
       </c>
       <c r="N6" t="n">
-        <v>652059.931769756</v>
+        <v>651712.5525153989</v>
       </c>
       <c r="O6" t="n">
-        <v>652059.9317697561</v>
+        <v>651712.5525153991</v>
       </c>
       <c r="P6" t="n">
-        <v>652059.9317697563</v>
+        <v>651712.5525153991</v>
       </c>
     </row>
   </sheetData>
@@ -26743,7 +26743,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="D3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26789,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022931</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26965,7 +26965,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>278.1987997483752</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973556</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973558</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973556</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,7 +27378,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -27387,10 +27387,10 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>185.2780905483388</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -27432,22 +27432,22 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>99.24424374768444</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27536,10 +27536,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27548,16 +27548,16 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27590,22 +27590,22 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>146.4621057720834</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>210.7995251327642</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27615,13 +27615,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -27633,10 +27633,10 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27669,22 +27669,22 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>243.9312612532526</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>331.8898480104163</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27773,19 +27773,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>7.788955283445546</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -27794,7 +27794,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,19 +27821,19 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>94.3554362891108</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -27852,13 +27852,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>113.0913093320065</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>79.78921730869035</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -27867,13 +27867,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292592</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,13 +27903,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -27918,10 +27918,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28019,19 +28019,19 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>83.32522828944182</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,28 +28058,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>158.003952183248</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28155,7 +28155,7 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>9.003997547551989e-13</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -28344,7 +28344,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -29817,7 +29817,7 @@
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -31515,7 +31515,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H8" t="n">
         <v>44.86703772844668</v>
@@ -31524,40 +31524,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J8" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K8" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R8" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T8" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,46 +31594,46 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H9" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I9" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026431</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K9" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O9" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q9" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R9" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31676,43 +31676,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H10" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I10" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K10" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L10" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M10" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P10" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q10" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U10" t="n">
         <v>0.1071911508780295</v>
@@ -31752,37 +31752,37 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R11" t="n">
         <v>345.4516222043725</v>
@@ -31791,10 +31791,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31837,40 +31837,40 @@
         <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K12" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M12" t="n">
-        <v>142.1340339220183</v>
+        <v>444.2274915982898</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437242</v>
       </c>
       <c r="P12" t="n">
-        <v>353.3934907042774</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U12" t="n">
         <v>0.1935814387275954</v>
@@ -31916,28 +31916,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J13" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N13" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q13" t="n">
         <v>206.5643005515927</v>
@@ -31946,7 +31946,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
@@ -31989,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -32001,31 +32001,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>423.9151577118737</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>131.3417120833333</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32150,25 +32150,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32177,19 +32177,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32311,16 +32311,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
         <v>745.5466476862121</v>
@@ -32329,13 +32329,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>388.514013929771</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
@@ -32475,7 +32475,7 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817581</v>
       </c>
       <c r="L20" t="n">
         <v>867.846407116256</v>
@@ -32548,10 +32548,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
         <v>475.1391886422585</v>
@@ -32566,16 +32566,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
-        <v>506.0735392239789</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32706,7 +32706,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I23" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J23" t="n">
         <v>466.7546155663283</v>
@@ -32785,16 +32785,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
         <v>745.5466476862121</v>
@@ -32803,13 +32803,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
-        <v>250.3097721075164</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
@@ -32946,7 +32946,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J26" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663288</v>
       </c>
       <c r="K26" t="n">
         <v>699.5441750817575</v>
@@ -33022,16 +33022,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>399.9031616963283</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
         <v>745.5466476862121</v>
@@ -33040,10 +33040,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
@@ -33259,10 +33259,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
         <v>475.1391886422585</v>
@@ -33271,16 +33271,16 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>169.2687847673337</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
@@ -33496,10 +33496,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
         <v>475.1391886422585</v>
@@ -33514,10 +33514,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>543.0832917018711</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
@@ -33678,10 +33678,10 @@
         <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S35" t="n">
         <v>125.31755462929</v>
@@ -33733,10 +33733,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
         <v>475.1391886422585</v>
@@ -33751,7 +33751,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>551.7051287319853</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
@@ -33891,7 +33891,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
@@ -33915,7 +33915,7 @@
         <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
         <v>345.4516222043725</v>
@@ -33970,10 +33970,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
         <v>475.1391886422585</v>
@@ -33982,19 +33982,19 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>167.1165249313368</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>145.679503963964</v>
@@ -34131,7 +34131,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663288</v>
       </c>
       <c r="K41" t="n">
         <v>699.5441750817575</v>
@@ -34155,7 +34155,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
         <v>125.31755462929</v>
@@ -34207,16 +34207,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>399.9031616963283</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
         <v>745.5466476862121</v>
@@ -34225,10 +34225,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
@@ -34365,7 +34365,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
@@ -34392,7 +34392,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
         <v>125.31755462929</v>
@@ -34444,10 +34444,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
         <v>475.1391886422585</v>
@@ -34462,10 +34462,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>543.0832917018711</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N8" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882193</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P8" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,25 +35251,25 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.62350453597635</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K9" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P9" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q9" t="n">
         <v>159.2338966127272</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.57841661306625</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K10" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L10" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M10" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N10" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O10" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P10" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.39423853789368</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35406,31 +35406,31 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J11" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L11" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N11" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P11" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R11" t="n">
         <v>129.8660843902404</v>
@@ -35485,31 +35485,31 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>302.0934576762715</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>557.4845759992797</v>
       </c>
       <c r="P12" t="n">
-        <v>219.4190832899471</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,7 +35567,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K13" t="n">
         <v>264.3325884096349</v>
@@ -35576,19 +35576,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P13" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,34 +35722,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>285.3607779319996</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O15" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35804,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35959,16 +35959,16 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
@@ -35977,13 +35977,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>245.9177694853266</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36123,7 +36123,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L20" t="n">
         <v>632.0799921462688</v>
@@ -36141,7 +36141,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
         <v>129.8660843902404</v>
@@ -36196,10 +36196,10 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
         <v>337.2977496678996</v>
@@ -36214,16 +36214,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
-        <v>372.0991318096486</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36354,7 +36354,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
@@ -36433,16 +36433,16 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
@@ -36451,13 +36451,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
-        <v>116.3353646931862</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36594,7 +36594,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K26" t="n">
         <v>479.454324036777</v>
@@ -36670,16 +36670,16 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>261.3487819164541</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
@@ -36688,10 +36688,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36907,10 +36907,10 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
         <v>337.2977496678996</v>
@@ -36919,16 +36919,16 @@
         <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>27.13475084531539</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -37144,10 +37144,10 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
         <v>337.2977496678996</v>
@@ -37162,10 +37162,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>409.1088842875408</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37326,10 +37326,10 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,10 +37381,10 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
         <v>337.2977496678996</v>
@@ -37399,7 +37399,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>409.1088842875408</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37539,7 +37539,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
@@ -37563,7 +37563,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
         <v>129.8660843902404</v>
@@ -37618,10 +37618,10 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
         <v>337.2977496678996</v>
@@ -37630,19 +37630,19 @@
         <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>27.13475084531527</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37779,7 +37779,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K41" t="n">
         <v>479.454324036777</v>
@@ -37803,7 +37803,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,16 +37855,16 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>261.3487819164541</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
@@ -37873,10 +37873,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -38013,7 +38013,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
@@ -38040,7 +38040,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,10 +38092,10 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
         <v>337.2977496678996</v>
@@ -38110,10 +38110,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>409.1088842875408</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_21_38.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_21_38.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3655946.464896019</v>
+        <v>3657706.995198804</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283186</v>
+        <v>416855.1052283187</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7646700.502757088</v>
+        <v>7646700.502757089</v>
       </c>
     </row>
     <row r="11">
@@ -661,16 +661,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>283.6826708844493</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>221.5979551933727</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
         <v>410.9217256534534</v>
@@ -715,7 +715,7 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -758,7 +758,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I3" t="n">
-        <v>18.8172186824772</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -834,7 +834,7 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
         <v>96.35242040983809</v>
@@ -867,22 +867,22 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>75.41231307284865</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>114.2656173771021</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -898,7 +898,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -907,13 +907,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>145.6513251149798</v>
       </c>
       <c r="G5" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
         <v>41.57692977292595</v>
@@ -958,7 +958,7 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>17.35112070699669</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1068,7 +1068,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1110,10 +1110,10 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>71.67037196991727</v>
       </c>
       <c r="V7" t="n">
-        <v>157.7822070347172</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -1138,7 +1138,7 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>274.8938243119926</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -1150,10 +1150,10 @@
         <v>10.92172565345345</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>256.395476851557</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1305,13 +1305,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>82.70057996958639</v>
       </c>
       <c r="H10" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>13.02719212039627</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695531</v>
+        <v>83.702514956955</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1435,7 +1435,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.7311006784681</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1466,7 +1466,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1527,13 +1527,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>122.6028762599951</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -1545,7 +1545,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1624,7 +1624,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444123</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1764,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>122.6028762599951</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -1782,7 +1782,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>83.06560892428169</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1852,13 +1852,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722614</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -2019,7 +2019,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2095,7 +2095,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
         <v>283.1540821444137</v>
@@ -2137,7 +2137,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2244,22 +2244,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,16 +2286,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>172.0260335000785</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2335,7 +2335,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H23" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2490,7 +2490,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>108.2950343703266</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
@@ -2535,7 +2535,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>194.9085394018857</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2718,7 +2718,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>42.5313457611372</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2733,7 +2733,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2763,13 +2763,13 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892441</v>
+        <v>228.9553704673018</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2842,13 +2842,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U29" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881285</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -3028,7 +3028,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3204,7 +3204,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3316,13 +3316,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3441,7 +3441,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3678,7 +3678,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3900,16 +3900,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>28.75188085812005</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
@@ -3948,13 +3948,13 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>105.6507867899569</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -4152,10 +4152,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>107.4021082756238</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4191,7 +4191,7 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>172.0260335000785</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4306,16 +4306,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2158.017852261502</v>
+        <v>1904.487375535337</v>
       </c>
       <c r="C2" t="n">
-        <v>1789.05533532109</v>
+        <v>1904.487375535337</v>
       </c>
       <c r="D2" t="n">
-        <v>1430.789636714339</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E2" t="n">
-        <v>1045.001384116095</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F2" t="n">
         <v>821.1650657389509</v>
@@ -4327,31 +4327,31 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810564</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M2" t="n">
         <v>1573.776739001389</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R2" t="n">
         <v>3325.605821609171</v>
@@ -4363,19 +4363,19 @@
         <v>3215.315153136266</v>
       </c>
       <c r="U2" t="n">
-        <v>3215.315153136266</v>
+        <v>2961.784676410102</v>
       </c>
       <c r="V2" t="n">
-        <v>2884.252265792696</v>
+        <v>2630.721789066532</v>
       </c>
       <c r="W2" t="n">
-        <v>2531.483610522581</v>
+        <v>2277.953133796417</v>
       </c>
       <c r="X2" t="n">
-        <v>2158.017852261502</v>
+        <v>1904.487375535337</v>
       </c>
       <c r="Y2" t="n">
-        <v>2158.017852261502</v>
+        <v>1904.487375535337</v>
       </c>
     </row>
     <row r="3">
@@ -4385,37 +4385,37 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811084</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999814</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387301</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332746</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601596</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927777</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064525</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K3" t="n">
         <v>398.4535849031479</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M3" t="n">
         <v>1212.428070438129</v>
@@ -4464,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>945.3964936596652</v>
+        <v>1091.613680441807</v>
       </c>
       <c r="C4" t="n">
-        <v>776.4603107317583</v>
+        <v>922.6774975139006</v>
       </c>
       <c r="D4" t="n">
-        <v>626.3436713194226</v>
+        <v>772.5608581015648</v>
       </c>
       <c r="E4" t="n">
-        <v>478.4305777370295</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="F4" t="n">
-        <v>331.5406302391191</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G4" t="n">
-        <v>163.8377936138381</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H4" t="n">
         <v>163.8377936138381</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J4" t="n">
         <v>111.634748879119</v>
@@ -4515,25 +4515,25 @@
         <v>1837.464090846021</v>
       </c>
       <c r="S4" t="n">
-        <v>1645.778206672847</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="T4" t="n">
-        <v>1424.011591242373</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="U4" t="n">
-        <v>1347.837537633435</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="V4" t="n">
-        <v>1347.837537633435</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="W4" t="n">
-        <v>1347.837537633435</v>
+        <v>1722.044275313594</v>
       </c>
       <c r="X4" t="n">
-        <v>1347.837537633435</v>
+        <v>1494.054724415577</v>
       </c>
       <c r="Y4" t="n">
-        <v>1127.044958489905</v>
+        <v>1273.262145272047</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2047.583838282732</v>
+        <v>1712.341567565137</v>
       </c>
       <c r="C5" t="n">
-        <v>1678.62132134232</v>
+        <v>1712.341567565137</v>
       </c>
       <c r="D5" t="n">
-        <v>1320.35562273557</v>
+        <v>1354.075868958387</v>
       </c>
       <c r="E5" t="n">
-        <v>934.5673701373257</v>
+        <v>968.2876163601427</v>
       </c>
       <c r="F5" t="n">
-        <v>523.5814653477182</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G5" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H5" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218345</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912105</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810571</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329466</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001391</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060173</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.52802693951</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296688</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.58875505237</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136267</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T5" t="n">
-        <v>3215.315153136267</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="U5" t="n">
-        <v>3215.315153136267</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="V5" t="n">
-        <v>3215.315153136267</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="W5" t="n">
-        <v>3197.788768583745</v>
+        <v>2862.546497866151</v>
       </c>
       <c r="X5" t="n">
-        <v>2824.323010322666</v>
+        <v>2489.080739605071</v>
       </c>
       <c r="Y5" t="n">
-        <v>2434.183678346854</v>
+        <v>2098.941407629259</v>
       </c>
     </row>
     <row r="6">
@@ -4622,70 +4622,70 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811091</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999821</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387309</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332754</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601604</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927784</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064586</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218345</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J6" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158134</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
         <v>2014.760455431608</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
         <v>1317.519490266131</v>
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>848.0708164780106</v>
+        <v>680.3679798527295</v>
       </c>
       <c r="C7" t="n">
-        <v>679.1346335501037</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="D7" t="n">
-        <v>529.0179941377679</v>
+        <v>361.3151575124868</v>
       </c>
       <c r="E7" t="n">
-        <v>381.1049005553748</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F7" t="n">
-        <v>234.2149530574645</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="G7" t="n">
-        <v>66.51211643218345</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218345</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218345</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J7" t="n">
         <v>111.634748879119</v>
@@ -4758,19 +4758,19 @@
         <v>1927.294548088493</v>
       </c>
       <c r="U7" t="n">
-        <v>1927.294548088493</v>
+        <v>1854.900232967364</v>
       </c>
       <c r="V7" t="n">
-        <v>1767.918581386758</v>
+        <v>1600.215744761477</v>
       </c>
       <c r="W7" t="n">
-        <v>1478.501411349798</v>
+        <v>1310.798574724517</v>
       </c>
       <c r="X7" t="n">
-        <v>1250.51186045178</v>
+        <v>1082.809023826499</v>
       </c>
       <c r="Y7" t="n">
-        <v>1029.71928130825</v>
+        <v>862.0164446829692</v>
       </c>
     </row>
     <row r="8">
@@ -4780,52 +4780,52 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1491.569348694472</v>
+        <v>1491.569348694473</v>
       </c>
       <c r="C8" t="n">
-        <v>1491.569348694472</v>
+        <v>1491.569348694473</v>
       </c>
       <c r="D8" t="n">
-        <v>1213.898819086399</v>
+        <v>1133.303650087723</v>
       </c>
       <c r="E8" t="n">
-        <v>828.1105664881545</v>
+        <v>747.5153974894783</v>
       </c>
       <c r="F8" t="n">
-        <v>417.1246616985469</v>
+        <v>336.5294926998708</v>
       </c>
       <c r="G8" t="n">
-        <v>406.0926155839475</v>
+        <v>325.4974465852713</v>
       </c>
       <c r="H8" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912083</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810548</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329463</v>
       </c>
       <c r="M8" t="n">
         <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O8" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R8" t="n">
         <v>3325.605821609171</v>
@@ -4840,16 +4840,16 @@
         <v>3325.605821609171</v>
       </c>
       <c r="V8" t="n">
-        <v>2994.5429342656</v>
+        <v>2994.542934265601</v>
       </c>
       <c r="W8" t="n">
-        <v>2641.774278995485</v>
+        <v>2641.774278995486</v>
       </c>
       <c r="X8" t="n">
-        <v>2268.308520734406</v>
+        <v>2268.308520734407</v>
       </c>
       <c r="Y8" t="n">
-        <v>1878.169188758594</v>
+        <v>1878.169188758595</v>
       </c>
     </row>
     <row r="9">
@@ -4859,37 +4859,37 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D9" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064537</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I9" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J9" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K9" t="n">
         <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
@@ -4916,7 +4916,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V9" t="n">
         <v>1779.608347199865</v>
@@ -4925,10 +4925,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="10">
@@ -4953,13 +4953,13 @@
         <v>393.5909197591989</v>
       </c>
       <c r="G10" t="n">
-        <v>225.8880831339178</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H10" t="n">
-        <v>79.67089635177561</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
@@ -5035,16 +5035,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192588</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332388</v>
@@ -5062,25 +5062,25 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
         <v>3094.515198591808</v>
@@ -5114,10 +5114,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>95.584050252739</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J12" t="n">
         <v>245.2306927803937</v>
@@ -5129,13 +5129,13 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>1373.553594266882</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N12" t="n">
-        <v>2001.151557821488</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O12" t="n">
-        <v>2553.061288060775</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P12" t="n">
         <v>2553.061288060775</v>
@@ -5175,37 +5175,37 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C13" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D13" t="n">
-        <v>402.7245934908938</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E13" t="n">
-        <v>402.7245934908938</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F13" t="n">
-        <v>402.7245934908938</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G13" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
@@ -5254,25 +5254,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168597</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362672</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
         <v>95.34095638192599</v>
@@ -5281,49 +5281,49 @@
         <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075808</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="15">
@@ -5351,10 +5351,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
         <v>245.2306927803937</v>
@@ -5369,7 +5369,7 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O15" t="n">
         <v>2553.061288060775</v>
@@ -5412,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C16" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D16" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E16" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F16" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G16" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782957</v>
@@ -5500,10 +5500,10 @@
         <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
@@ -5512,7 +5512,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J17" t="n">
         <v>378.1925803111717</v>
@@ -5521,13 +5521,13 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
@@ -5649,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D19" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E19" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F19" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G19" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
         <v>93.81666304797187</v>
@@ -5697,28 +5697,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="20">
@@ -5734,13 +5734,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
@@ -5755,7 +5755,7 @@
         <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5767,7 +5767,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5788,13 +5788,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400712</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9174178121643</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D22" t="n">
-        <v>344.9174178121643</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E22" t="n">
-        <v>344.9174178121643</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F22" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G22" t="n">
-        <v>177.7213185270443</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5934,28 +5934,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>2273.199413378161</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>2273.199413378161</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648819</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611858</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138411</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703109</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="23">
@@ -5971,25 +5971,25 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
         <v>852.8523611075807</v>
@@ -6004,7 +6004,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6025,13 +6025,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6123,19 +6123,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D25" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E25" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F25" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G25" t="n">
         <v>235.5284942057738</v>
@@ -6183,16 +6183,16 @@
         <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="26">
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>696.7084350851671</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C28" t="n">
-        <v>527.7722521572603</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D28" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E28" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
@@ -6411,25 +6411,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1871.240688199802</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V28" t="n">
-        <v>1616.556199993915</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W28" t="n">
-        <v>1327.139029956954</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X28" t="n">
-        <v>1099.149479058937</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y28" t="n">
-        <v>878.3568999154069</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="29">
@@ -6451,7 +6451,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362686</v>
@@ -6463,13 +6463,13 @@
         <v>95.34095638192599</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075817</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M29" t="n">
         <v>2206.558663014779</v>
@@ -6481,10 +6481,10 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
@@ -6499,13 +6499,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6736,13 +6736,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6834,22 +6834,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C34" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D34" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E34" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F34" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G34" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
         <v>93.81666304797187</v>
@@ -6882,28 +6882,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="35">
@@ -7071,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C37" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D37" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E37" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F37" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G37" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
         <v>93.81666304797187</v>
@@ -7119,28 +7119,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="38">
@@ -7162,34 +7162,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I38" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7308,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C40" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D40" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E40" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F40" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G40" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
         <v>93.81666304797187</v>
@@ -7356,28 +7356,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="41">
@@ -7399,7 +7399,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362687</v>
@@ -7408,7 +7408,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192595</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J41" t="n">
         <v>378.192580311172</v>
@@ -7545,16 +7545,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1098.667160263527</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>929.7309773356195</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D43" t="n">
-        <v>779.6143379232838</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E43" t="n">
-        <v>631.7012443408906</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F43" t="n">
         <v>484.8112968429803</v>
@@ -7596,25 +7596,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2379.917379832663</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>2273.199413378161</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>2018.514925172274</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1729.097755135313</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>1501.108204237296</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7624,22 +7624,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
@@ -7681,19 +7681,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="45">
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1098.667160263527</v>
+        <v>983.3556038098237</v>
       </c>
       <c r="C46" t="n">
-        <v>929.7309773356195</v>
+        <v>814.4194208819168</v>
       </c>
       <c r="D46" t="n">
-        <v>779.6143379232838</v>
+        <v>664.3027814695811</v>
       </c>
       <c r="E46" t="n">
-        <v>631.7012443408906</v>
+        <v>516.389687887188</v>
       </c>
       <c r="F46" t="n">
-        <v>484.8112968429803</v>
+        <v>369.4997403892776</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6151975578602</v>
+        <v>202.3036411041575</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7839,19 +7839,19 @@
         <v>2446.96308358026</v>
       </c>
       <c r="U46" t="n">
-        <v>2273.199413378161</v>
+        <v>2157.887856924458</v>
       </c>
       <c r="V46" t="n">
-        <v>2018.514925172274</v>
+        <v>1903.203368718571</v>
       </c>
       <c r="W46" t="n">
-        <v>1729.097755135313</v>
+        <v>1613.786198681611</v>
       </c>
       <c r="X46" t="n">
-        <v>1501.108204237296</v>
+        <v>1385.796647783593</v>
       </c>
       <c r="Y46" t="n">
-        <v>1280.315625093766</v>
+        <v>1165.004068640063</v>
       </c>
     </row>
   </sheetData>
@@ -23415,13 +23415,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>65.54986409393068</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -23433,10 +23433,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856555</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23652,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -23670,7 +23670,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>81.26583631856553</v>
@@ -23907,7 +23907,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>81.26583631856553</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -24132,22 +24132,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,16 +24174,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>45.37941682720972</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24378,7 +24378,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -24423,7 +24423,7 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>57.22910392194228</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24606,7 +24606,7 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>106.0841272570752</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -24621,7 +24621,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24651,13 +24651,13 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>57.22910392194231</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -25092,7 +25092,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>81.26583631856553</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25329,7 +25329,7 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>81.26583631856553</v>
@@ -25359,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25566,7 +25566,7 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>81.26583631856553</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25788,16 +25788,16 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>119.8635921600923</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -25836,13 +25836,13 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>180.5336875992872</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26040,10 +26040,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>32.8926045706001</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26079,7 +26079,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>114.1584408891656</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>658526.1030172635</v>
+        <v>658526.1030172636</v>
       </c>
     </row>
     <row r="9">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>658526.1030172636</v>
+        <v>658526.1030172635</v>
       </c>
     </row>
     <row r="11">
@@ -26316,40 +26316,40 @@
         <v>779989.6813710689</v>
       </c>
       <c r="C2" t="n">
-        <v>779989.6813710688</v>
+        <v>779989.681371069</v>
       </c>
       <c r="D2" t="n">
         <v>779989.681371069</v>
       </c>
       <c r="E2" t="n">
+        <v>766789.2697055058</v>
+      </c>
+      <c r="F2" t="n">
         <v>766789.2697055059</v>
       </c>
-      <c r="F2" t="n">
-        <v>766789.269705506</v>
-      </c>
       <c r="G2" t="n">
+        <v>766789.2697055059</v>
+      </c>
+      <c r="H2" t="n">
+        <v>766789.2697055055</v>
+      </c>
+      <c r="I2" t="n">
         <v>766789.2697055058</v>
-      </c>
-      <c r="H2" t="n">
-        <v>766789.2697055056</v>
-      </c>
-      <c r="I2" t="n">
-        <v>766789.2697055059</v>
       </c>
       <c r="J2" t="n">
         <v>766789.2697055058</v>
       </c>
       <c r="K2" t="n">
+        <v>766789.2697055058</v>
+      </c>
+      <c r="L2" t="n">
         <v>766789.2697055059</v>
       </c>
-      <c r="L2" t="n">
+      <c r="M2" t="n">
         <v>766789.2697055057</v>
       </c>
-      <c r="M2" t="n">
-        <v>766789.2697055056</v>
-      </c>
       <c r="N2" t="n">
-        <v>766789.2697055057</v>
+        <v>766789.2697055059</v>
       </c>
       <c r="O2" t="n">
         <v>766789.2697055058</v>
@@ -26374,10 +26374,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073549</v>
+        <v>325412.4618073551</v>
       </c>
       <c r="F3" t="n">
-        <v>1.797263848857256e-10</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26417,28 +26417,28 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>92793.84288319404</v>
+      </c>
+      <c r="C4" t="n">
+        <v>92793.84288319407</v>
+      </c>
+      <c r="D4" t="n">
         <v>92793.84288319401</v>
       </c>
-      <c r="C4" t="n">
-        <v>92793.84288319395</v>
-      </c>
-      <c r="D4" t="n">
-        <v>92793.84288319405</v>
-      </c>
       <c r="E4" t="n">
-        <v>13606.80811184278</v>
+        <v>13606.80811184274</v>
       </c>
       <c r="F4" t="n">
-        <v>13606.80811184281</v>
+        <v>13606.80811184274</v>
       </c>
       <c r="G4" t="n">
         <v>13606.80811184274</v>
       </c>
       <c r="H4" t="n">
-        <v>13606.80811184274</v>
+        <v>13606.80811184275</v>
       </c>
       <c r="I4" t="n">
-        <v>13606.80811184274</v>
+        <v>13606.80811184275</v>
       </c>
       <c r="J4" t="n">
         <v>13606.80811184275</v>
@@ -26456,7 +26456,7 @@
         <v>13606.80811184274</v>
       </c>
       <c r="O4" t="n">
-        <v>13606.80811184275</v>
+        <v>13606.80811184274</v>
       </c>
       <c r="P4" t="n">
         <v>13606.80811184274</v>
@@ -26524,46 +26524,46 @@
         <v>-749482.8478011109</v>
       </c>
       <c r="C6" t="n">
-        <v>579261.8979264816</v>
+        <v>579261.8979264817</v>
       </c>
       <c r="D6" t="n">
         <v>579261.8979264818</v>
       </c>
       <c r="E6" t="n">
-        <v>326300.0907080441</v>
+        <v>326612.7320369651</v>
       </c>
       <c r="F6" t="n">
-        <v>651712.5525153989</v>
+        <v>652025.1938443205</v>
       </c>
       <c r="G6" t="n">
-        <v>651712.5525153991</v>
+        <v>652025.1938443205</v>
       </c>
       <c r="H6" t="n">
-        <v>651712.5525153988</v>
+        <v>652025.19384432</v>
       </c>
       <c r="I6" t="n">
-        <v>651712.5525153992</v>
+        <v>652025.1938443204</v>
       </c>
       <c r="J6" t="n">
-        <v>434181.3501181214</v>
+        <v>434493.9914470428</v>
       </c>
       <c r="K6" t="n">
-        <v>651712.5525153992</v>
+        <v>652025.1938443204</v>
       </c>
       <c r="L6" t="n">
-        <v>651712.5525153991</v>
+        <v>652025.1938443205</v>
       </c>
       <c r="M6" t="n">
-        <v>566657.524579887</v>
+        <v>566970.1659088085</v>
       </c>
       <c r="N6" t="n">
-        <v>651712.5525153989</v>
+        <v>652025.1938443205</v>
       </c>
       <c r="O6" t="n">
-        <v>651712.5525153991</v>
+        <v>652025.1938443204</v>
       </c>
       <c r="P6" t="n">
-        <v>651712.5525153991</v>
+        <v>652025.1938443204</v>
       </c>
     </row>
   </sheetData>
@@ -26789,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>831.4014554022928</v>
+      </c>
+      <c r="C4" t="n">
+        <v>831.4014554022925</v>
+      </c>
+      <c r="D4" t="n">
         <v>831.4014554022929</v>
-      </c>
-      <c r="C4" t="n">
-        <v>831.4014554022931</v>
-      </c>
-      <c r="D4" t="n">
-        <v>831.4014554022926</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26968,10 +26968,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483752</v>
+        <v>278.1987997483754</v>
       </c>
       <c r="F3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27381,16 +27381,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>71.00037073623366</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>185.2780905483388</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -27435,7 +27435,7 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -27554,7 +27554,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -27587,22 +27587,22 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>210.7995251327642</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>172.2573809594889</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27618,7 +27618,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -27627,13 +27627,13 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>261.2247206267316</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27678,7 +27678,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>331.8898480104163</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -27788,7 +27788,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
         <v>144.7550149143208</v>
@@ -27830,10 +27830,10 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>214.5414662356956</v>
       </c>
       <c r="V7" t="n">
-        <v>94.3554362891108</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -27858,7 +27858,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>79.78921730869035</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -27870,10 +27870,10 @@
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>38.21228753576344</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -28025,13 +28025,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>83.32522828944184</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>83.32522828944182</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28155,7 +28155,7 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>9.003997547551989e-13</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -28344,7 +28344,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>1.4210854715202e-12</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -31752,37 +31752,37 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
         <v>345.4516222043725</v>
@@ -31791,10 +31791,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31840,25 +31840,25 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>444.2274915982898</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071783</v>
+        <v>639.4703354763103</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437242</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
@@ -31867,10 +31867,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
         <v>0.1935814387275954</v>
@@ -31916,28 +31916,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
         <v>206.5643005515927</v>
@@ -31946,7 +31946,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
@@ -32089,10 +32089,10 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>463.9598929192557</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
@@ -32475,7 +32475,7 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817581</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
         <v>867.846407116256</v>
@@ -32490,7 +32490,7 @@
         <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.820449923651</v>
       </c>
       <c r="Q20" t="n">
         <v>593.8732233669223</v>
@@ -33891,7 +33891,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
@@ -34128,10 +34128,10 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J41" t="n">
-        <v>466.7546155663288</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
         <v>699.5441750817575</v>
@@ -35406,31 +35406,31 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
         <v>129.8660843902404</v>
@@ -35485,28 +35485,28 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774901</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678995</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674329</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>302.0934576762715</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>633.937336923845</v>
+        <v>508.128623392977</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992797</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35567,7 +35567,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
         <v>264.3325884096349</v>
@@ -35576,19 +35576,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35737,10 +35737,10 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>332.6181808359224</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -36123,7 +36123,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367776</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
         <v>632.0799921462688</v>
@@ -36138,7 +36138,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q20" t="n">
         <v>371.5675334924728</v>
@@ -36375,7 +36375,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q23" t="n">
         <v>371.5675334924728</v>
@@ -37539,7 +37539,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
@@ -37776,10 +37776,10 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J41" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
         <v>479.454324036777</v>
